--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImranH2\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="313">
   <si>
     <t>Application_Details</t>
   </si>
@@ -958,19 +958,22 @@
     <t>To Cancel Open Orders</t>
   </si>
   <si>
+    <t>http://10.162.53.91:8001/soa-infra/services/vfqamrgdomain/QueryRealTimeBalanceSiebelReqABCSImpl/queryrealtimebalancesiebelreqabcsimpl_client_ep?WSDL</t>
+  </si>
+  <si>
+    <t>10.162.53.102:7001/OrderManagement/control/home</t>
+  </si>
+  <si>
+    <t>10.162.53.95</t>
+  </si>
+  <si>
+    <t>10.162.53.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://10.162.52.113:8011/CustomerBill/PS_VFQA_CustomerBill?wsdl </t>
+  </si>
+  <si>
     <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>Batch1</t>
-  </si>
-  <si>
-    <t>Batch2</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152245||SIM--8962702800901163245||PlanName--Postpaid Standard Promotion||LastName--Khan||FirstName--Ahmed||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152245||SIM--8962702800901163245||PlanName--Postpaid Standard Promotion||Account_No--11104563261||</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1121,11 +1124,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1161,6 +1173,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1633,10 +1649,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1660,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="149.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1684,15 +1700,80 @@
         <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>122</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -1704,10 +1785,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,18 +1797,18 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="126.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -1752,54 +1833,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -1811,8 +1856,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38:I38"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8977,8 +9022,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Work_Giri\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="310">
   <si>
     <t>Application_Details</t>
   </si>
@@ -958,22 +958,13 @@
     <t>To Cancel Open Orders</t>
   </si>
   <si>
-    <t>http://10.162.53.91:8001/soa-infra/services/vfqamrgdomain/QueryRealTimeBalanceSiebelReqABCSImpl/queryrealtimebalancesiebelreqabcsimpl_client_ep?WSDL</t>
-  </si>
-  <si>
-    <t>10.162.53.102:7001/OrderManagement/control/home</t>
-  </si>
-  <si>
-    <t>10.162.53.95</t>
-  </si>
-  <si>
-    <t>10.162.53.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.162.52.113:8011/CustomerBill/PS_VFQA_CustomerBill?wsdl </t>
-  </si>
-  <si>
     <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>Batch1</t>
+  </si>
+  <si>
+    <t>Account_No--11807155831||MSISDN--1111||SIM--2121||PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Bill_Profile--1-5F9OBTP||Add_Addon--Paid Addons,Business Vodafone Minutes Pack::Business Vodafone Minutes Pack 100% Discount,Business Local Minutes Pack::Business Local Minutes Pack 100% Discount||PlanBundle--Business Value 225::Business Red 30% Discount||</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1640,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1660,7 +1651,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="149.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1700,80 +1691,10 @@
         <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -1787,8 +1708,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,10 +1718,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1833,7 +1754,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1787,16 @@
     <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -1856,8 +1808,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E487"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="B235" sqref="B235:B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,9 +1962,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>70</v>
       </c>
@@ -2027,9 +1977,7 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
@@ -2044,9 +1992,7 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
@@ -2061,9 +2007,7 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2214,9 +2158,7 @@
       <c r="A22" s="3">
         <v>8</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
         <v>70</v>
       </c>
@@ -2231,9 +2173,7 @@
       <c r="A23" s="3">
         <v>9</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="6" t="s">
         <v>27</v>
       </c>
@@ -2248,9 +2188,7 @@
       <c r="A24" s="3">
         <v>10</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
@@ -2265,9 +2203,7 @@
       <c r="A25" s="3">
         <v>11</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
@@ -2435,9 +2371,7 @@
       <c r="A36" s="3">
         <v>9</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>173</v>
-      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
         <v>70</v>
       </c>
@@ -2452,9 +2386,7 @@
       <c r="A37" s="3">
         <v>10</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>173</v>
-      </c>
+      <c r="B37" s="4"/>
       <c r="C37" s="6" t="s">
         <v>27</v>
       </c>
@@ -2469,9 +2401,7 @@
       <c r="A38" s="3">
         <v>11</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>173</v>
-      </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="6" t="s">
         <v>29</v>
       </c>
@@ -2486,9 +2416,7 @@
       <c r="A39" s="3">
         <v>12</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>173</v>
-      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="6" t="s">
         <v>31</v>
       </c>
@@ -2639,9 +2567,7 @@
       <c r="A49" s="3">
         <v>8</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
         <v>70</v>
       </c>
@@ -2656,9 +2582,7 @@
       <c r="A50" s="3">
         <v>9</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="B50" s="4"/>
       <c r="C50" s="6" t="s">
         <v>27</v>
       </c>
@@ -2673,9 +2597,7 @@
       <c r="A51" s="3">
         <v>10</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="B51" s="4"/>
       <c r="C51" s="6" t="s">
         <v>29</v>
       </c>
@@ -2690,9 +2612,7 @@
       <c r="A52" s="3">
         <v>11</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="B52" s="4"/>
       <c r="C52" s="6" t="s">
         <v>31</v>
       </c>
@@ -2843,9 +2763,7 @@
       <c r="A62" s="3">
         <v>8</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="B62" s="4"/>
       <c r="C62" s="5" t="s">
         <v>70</v>
       </c>
@@ -2860,9 +2778,7 @@
       <c r="A63" s="3">
         <v>9</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="B63" s="4"/>
       <c r="C63" s="6" t="s">
         <v>27</v>
       </c>
@@ -2877,9 +2793,7 @@
       <c r="A64" s="3">
         <v>10</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="B64" s="4"/>
       <c r="C64" s="6" t="s">
         <v>29</v>
       </c>
@@ -2894,9 +2808,7 @@
       <c r="A65" s="3">
         <v>11</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="B65" s="4"/>
       <c r="C65" s="6" t="s">
         <v>31</v>
       </c>
@@ -3067,9 +2979,7 @@
       <c r="A76" s="3">
         <v>9</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>174</v>
-      </c>
+      <c r="B76" s="4"/>
       <c r="C76" s="5" t="s">
         <v>70</v>
       </c>
@@ -3084,9 +2994,7 @@
       <c r="A77" s="3">
         <v>10</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>174</v>
-      </c>
+      <c r="B77" s="4"/>
       <c r="C77" s="6" t="s">
         <v>27</v>
       </c>
@@ -3101,9 +3009,7 @@
       <c r="A78" s="3">
         <v>11</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>174</v>
-      </c>
+      <c r="B78" s="4"/>
       <c r="C78" s="6" t="s">
         <v>29</v>
       </c>
@@ -3118,9 +3024,7 @@
       <c r="A79" s="3">
         <v>12</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>174</v>
-      </c>
+      <c r="B79" s="4"/>
       <c r="C79" s="6" t="s">
         <v>31</v>
       </c>
@@ -3189,9 +3093,7 @@
       <c r="A84" s="3">
         <v>3</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="B84" s="8"/>
       <c r="C84" s="5" t="s">
         <v>70</v>
       </c>
@@ -3206,9 +3108,7 @@
       <c r="A85" s="3">
         <v>4</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="B85" s="8"/>
       <c r="C85" s="6" t="s">
         <v>27</v>
       </c>
@@ -3223,9 +3123,7 @@
       <c r="A86" s="3">
         <v>5</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="B86" s="8"/>
       <c r="C86" s="6" t="s">
         <v>29</v>
       </c>
@@ -3240,9 +3138,7 @@
       <c r="A87" s="3">
         <v>6</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="B87" s="8"/>
       <c r="C87" s="6" t="s">
         <v>31</v>
       </c>
@@ -3393,9 +3289,7 @@
       <c r="A99" s="3">
         <v>2</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>258</v>
-      </c>
+      <c r="B99" s="8"/>
       <c r="C99" s="5" t="s">
         <v>70</v>
       </c>
@@ -3427,9 +3321,7 @@
       <c r="A101" s="3">
         <v>4</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>258</v>
-      </c>
+      <c r="B101" s="8"/>
       <c r="C101" s="5" t="s">
         <v>70</v>
       </c>
@@ -3444,9 +3336,7 @@
       <c r="A102" s="3">
         <v>5</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>258</v>
-      </c>
+      <c r="B102" s="8"/>
       <c r="C102" s="6" t="s">
         <v>27</v>
       </c>
@@ -3461,9 +3351,7 @@
       <c r="A103" s="3">
         <v>6</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>258</v>
-      </c>
+      <c r="B103" s="8"/>
       <c r="C103" s="6" t="s">
         <v>29</v>
       </c>
@@ -3478,9 +3366,7 @@
       <c r="A104" s="3">
         <v>7</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>258</v>
-      </c>
+      <c r="B104" s="8"/>
       <c r="C104" s="6" t="s">
         <v>31</v>
       </c>
@@ -3529,9 +3415,7 @@
       <c r="A108" s="3">
         <v>2</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B108" s="4"/>
       <c r="C108" s="5" t="s">
         <v>27</v>
       </c>
@@ -3546,9 +3430,7 @@
       <c r="A109" s="3">
         <v>3</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B109" s="4"/>
       <c r="C109" s="6" t="s">
         <v>29</v>
       </c>
@@ -3563,9 +3445,7 @@
       <c r="A110" s="3">
         <v>4</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B110" s="4"/>
       <c r="C110" s="5" t="s">
         <v>70</v>
       </c>
@@ -3597,9 +3477,7 @@
       <c r="A112" s="3">
         <v>6</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B112" s="4"/>
       <c r="C112" s="5" t="s">
         <v>70</v>
       </c>
@@ -3614,9 +3492,7 @@
       <c r="A113" s="3">
         <v>7</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B113" s="4"/>
       <c r="C113" s="6" t="s">
         <v>27</v>
       </c>
@@ -3631,9 +3507,7 @@
       <c r="A114" s="3">
         <v>8</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B114" s="4"/>
       <c r="C114" s="6" t="s">
         <v>72</v>
       </c>
@@ -3648,9 +3522,7 @@
       <c r="A115" s="3">
         <v>9</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B115" s="4"/>
       <c r="C115" s="6" t="s">
         <v>31</v>
       </c>
@@ -3699,9 +3571,7 @@
       <c r="A119" s="3">
         <v>2</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B119" s="4"/>
       <c r="C119" s="5" t="s">
         <v>27</v>
       </c>
@@ -3716,9 +3586,7 @@
       <c r="A120" s="3">
         <v>3</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B120" s="4"/>
       <c r="C120" s="6" t="s">
         <v>29</v>
       </c>
@@ -3733,9 +3601,7 @@
       <c r="A121" s="3">
         <v>4</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B121" s="4"/>
       <c r="C121" s="5" t="s">
         <v>70</v>
       </c>
@@ -3767,9 +3633,7 @@
       <c r="A123" s="3">
         <v>6</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B123" s="4"/>
       <c r="C123" s="5" t="s">
         <v>70</v>
       </c>
@@ -3784,9 +3648,7 @@
       <c r="A124" s="3">
         <v>7</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B124" s="4"/>
       <c r="C124" s="5" t="s">
         <v>27</v>
       </c>
@@ -3801,9 +3663,7 @@
       <c r="A125" s="3">
         <v>8</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B125" s="4"/>
       <c r="C125" s="6" t="s">
         <v>72</v>
       </c>
@@ -3818,9 +3678,7 @@
       <c r="A126" s="3">
         <v>9</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B126" s="4"/>
       <c r="C126" s="6" t="s">
         <v>31</v>
       </c>
@@ -3869,9 +3727,7 @@
       <c r="A130" s="3">
         <v>2</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B130" s="8"/>
       <c r="C130" s="5" t="s">
         <v>27</v>
       </c>
@@ -3886,9 +3742,7 @@
       <c r="A131" s="3">
         <v>3</v>
       </c>
-      <c r="B131" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B131" s="8"/>
       <c r="C131" s="6" t="s">
         <v>29</v>
       </c>
@@ -3903,9 +3757,7 @@
       <c r="A132" s="3">
         <v>4</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B132" s="8"/>
       <c r="C132" s="5" t="s">
         <v>70</v>
       </c>
@@ -3937,9 +3789,7 @@
       <c r="A134" s="3">
         <v>6</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B134" s="8"/>
       <c r="C134" s="5" t="s">
         <v>70</v>
       </c>
@@ -3954,9 +3804,7 @@
       <c r="A135" s="3">
         <v>7</v>
       </c>
-      <c r="B135" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B135" s="8"/>
       <c r="C135" s="6" t="s">
         <v>27</v>
       </c>
@@ -3971,9 +3819,7 @@
       <c r="A136" s="3">
         <v>8</v>
       </c>
-      <c r="B136" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B136" s="8"/>
       <c r="C136" s="6" t="s">
         <v>76</v>
       </c>
@@ -4073,9 +3919,7 @@
       <c r="A144" s="3">
         <v>2</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B144" s="8"/>
       <c r="C144" s="5" t="s">
         <v>27</v>
       </c>
@@ -4090,9 +3934,7 @@
       <c r="A145" s="3">
         <v>3</v>
       </c>
-      <c r="B145" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B145" s="8"/>
       <c r="C145" s="6" t="s">
         <v>29</v>
       </c>
@@ -4124,9 +3966,7 @@
       <c r="A147" s="3">
         <v>5</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B147" s="8"/>
       <c r="C147" s="6" t="s">
         <v>27</v>
       </c>
@@ -4141,9 +3981,7 @@
       <c r="A148" s="3">
         <v>6</v>
       </c>
-      <c r="B148" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B148" s="8"/>
       <c r="C148" s="6" t="s">
         <v>76</v>
       </c>
@@ -4209,9 +4047,7 @@
       <c r="A153" s="3">
         <v>3</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="B153" s="8"/>
       <c r="C153" s="5" t="s">
         <v>196</v>
       </c>
@@ -4277,9 +4113,7 @@
       <c r="A158" s="3">
         <v>3</v>
       </c>
-      <c r="B158" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="B158" s="8"/>
       <c r="C158" s="5" t="s">
         <v>248</v>
       </c>
@@ -5026,9 +4860,7 @@
       <c r="A215" s="3">
         <v>3</v>
       </c>
-      <c r="B215" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B215" s="8"/>
       <c r="C215" s="5" t="s">
         <v>70</v>
       </c>
@@ -5043,9 +4875,7 @@
       <c r="A216" s="3">
         <v>4</v>
       </c>
-      <c r="B216" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B216" s="8"/>
       <c r="C216" s="5" t="s">
         <v>27</v>
       </c>
@@ -5060,9 +4890,7 @@
       <c r="A217" s="3">
         <v>5</v>
       </c>
-      <c r="B217" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B217" s="8"/>
       <c r="C217" s="5" t="s">
         <v>29</v>
       </c>
@@ -5077,9 +4905,7 @@
       <c r="A218" s="3">
         <v>6</v>
       </c>
-      <c r="B218" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B218" s="8"/>
       <c r="C218" s="5" t="s">
         <v>31</v>
       </c>
@@ -5298,9 +5124,7 @@
       <c r="A235" s="3">
         <v>3</v>
       </c>
-      <c r="B235" s="8" t="s">
-        <v>257</v>
-      </c>
+      <c r="B235" s="8"/>
       <c r="C235" s="5" t="s">
         <v>70</v>
       </c>
@@ -5315,9 +5139,7 @@
       <c r="A236" s="3">
         <v>4</v>
       </c>
-      <c r="B236" s="8" t="s">
-        <v>257</v>
-      </c>
+      <c r="B236" s="8"/>
       <c r="C236" s="5" t="s">
         <v>27</v>
       </c>
@@ -5332,9 +5154,7 @@
       <c r="A237" s="3">
         <v>5</v>
       </c>
-      <c r="B237" s="8" t="s">
-        <v>257</v>
-      </c>
+      <c r="B237" s="8"/>
       <c r="C237" s="5" t="s">
         <v>29</v>
       </c>
@@ -5349,9 +5169,7 @@
       <c r="A238" s="3">
         <v>6</v>
       </c>
-      <c r="B238" s="8" t="s">
-        <v>257</v>
-      </c>
+      <c r="B238" s="8"/>
       <c r="C238" s="5" t="s">
         <v>31</v>
       </c>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="310">
   <si>
     <t>Application_Details</t>
   </si>
@@ -940,9 +940,6 @@
     <t>ZIP XML File</t>
   </si>
   <si>
-    <t>QA6</t>
-  </si>
-  <si>
     <t>Project_Name</t>
   </si>
   <si>
@@ -958,13 +955,16 @@
     <t>To Cancel Open Orders</t>
   </si>
   <si>
-    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>Batch1</t>
-  </si>
-  <si>
-    <t>Account_No--11807155831||MSISDN--1111||SIM--2121||PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Bill_Profile--1-5F9OBTP||Add_Addon--Paid Addons,Business Vodafone Minutes Pack::Business Vodafone Minutes Pack 100% Discount,Business Local Minutes Pack::Business Local Minutes Pack 100% Discount||PlanBundle--Business Value 225::Business Red 30% Discount||</t>
+    <t>Account_No--123123||MSISDN--1223123||SIM--123123123||PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Bill_Profile--213213||Add_Addon--Paid Addons,Business Vodafone Minutes Pack::Business Vodafone Minutes Pack 100% Discount,Business Local Minutes Pack::Business Local Minutes Pack 100% Discount||PlanBundle--Business Value 225::20% Discount lifetime||</t>
+  </si>
+  <si>
+    <t>MSISDN--12121212||||</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1685,13 +1685,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
@@ -1709,19 +1709,19 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1755,29 +1755,15 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
       <c r="B2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -8783,7 +8769,7 @@
         <v>1</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C485" s="5" t="s">
         <v>12</v>
@@ -8800,16 +8786,16 @@
         <v>2</v>
       </c>
       <c r="B486" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C486" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C486" s="5" t="s">
+      <c r="D486" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E486" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="D486" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E486" s="5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -8817,7 +8803,7 @@
         <v>3</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>25</v>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -961,10 +961,10 @@
     <t>MSISDN--12121212||||</t>
   </si>
   <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe?</t>
+    <t>QA6</t>
+  </si>
+  <si>
+    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
 </sst>
 </file>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="309">
   <si>
     <t>Application_Details</t>
   </si>
@@ -953,9 +953,6 @@
   </si>
   <si>
     <t>To Cancel Open Orders</t>
-  </si>
-  <si>
-    <t>Account_No--123123||MSISDN--1223123||SIM--123123123||PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Bill_Profile--213213||Add_Addon--Paid Addons,Business Vodafone Minutes Pack::Business Vodafone Minutes Pack 100% Discount,Business Local Minutes Pack::Business Local Minutes Pack 100% Discount||PlanBundle--Business Value 225::20% Discount lifetime||</t>
   </si>
   <si>
     <t>MSISDN--12121212||||</t>
@@ -1688,10 +1685,10 @@
         <v>302</v>
       </c>
       <c r="C2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" t="s">
         <v>308</v>
-      </c>
-      <c r="D2" t="s">
-        <v>309</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
@@ -1715,7 +1712,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1759,11 +1756,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>307</v>
-      </c>
-    </row>
+    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1772,7 +1765,12 @@
     <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+    </row>
     <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="308">
   <si>
     <t>Application_Details</t>
   </si>
@@ -953,9 +953,6 @@
   </si>
   <si>
     <t>To Cancel Open Orders</t>
-  </si>
-  <si>
-    <t>MSISDN--12121212||||</t>
   </si>
   <si>
     <t>QA6</t>
@@ -1685,10 +1682,10 @@
         <v>302</v>
       </c>
       <c r="C2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" t="s">
         <v>307</v>
-      </c>
-      <c r="D2" t="s">
-        <v>308</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
@@ -1706,13 +1703,13 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1751,11 +1748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1765,22 +1758,8 @@
     <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-    </row>
+    <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -958,7 +958,7 @@
     <t>QA6</t>
   </si>
   <si>
-    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
+    <t>https://10.162.53.228:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
 </sst>
 </file>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Work_Giri\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sravanireddyc\Desktop\WorkSpace_giri\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -964,7 +964,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sravanireddyc\Desktop\WorkSpace_giri\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sravanireddyc\Desktop\wr\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="313">
   <si>
     <t>Application_Details</t>
   </si>
@@ -958,7 +958,22 @@
     <t>QA6</t>
   </si>
   <si>
-    <t>https://10.162.53.228:4443/ecommunications_oui_enu/start.swe?</t>
+    <t>Batch1</t>
+  </si>
+  <si>
+    <t>PriceOverride_Ext</t>
+  </si>
+  <si>
+    <t>Account_No--21202314931||MSISDN--97470173402||SIM--8942702111334344224||PlanName--Postpaid.Basic Promotion||OverrideAmt--0||</t>
+  </si>
+  <si>
+    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe</t>
+  </si>
+  <si>
+    <t>HANIFKHAN</t>
+  </si>
+  <si>
+    <t>Eid@786555%</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1651,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1645,7 +1660,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1685,7 +1700,13 @@
         <v>306</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>310</v>
+      </c>
+      <c r="E2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" t="s">
+        <v>312</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
@@ -1712,10 +1733,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="128.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1748,7 +1769,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1771,8 +1814,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E487"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="B235" sqref="B235:B238"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,9 +2866,7 @@
       <c r="A69" s="3">
         <v>2</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>174</v>
-      </c>
+      <c r="B69" s="4"/>
       <c r="C69" s="5" t="s">
         <v>39</v>
       </c>
@@ -2840,9 +2881,7 @@
       <c r="A70" s="3">
         <v>3</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>174</v>
-      </c>
+      <c r="B70" s="4"/>
       <c r="C70" s="5" t="s">
         <v>41</v>
       </c>
@@ -2857,9 +2896,7 @@
       <c r="A71" s="3">
         <v>4</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>174</v>
-      </c>
+      <c r="B71" s="4"/>
       <c r="C71" s="5" t="s">
         <v>19</v>
       </c>
@@ -2874,9 +2911,7 @@
       <c r="A72" s="3">
         <v>5</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>174</v>
-      </c>
+      <c r="B72" s="4"/>
       <c r="C72" s="5" t="s">
         <v>21</v>
       </c>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="309">
   <si>
     <t>Application_Details</t>
   </si>
@@ -958,22 +958,10 @@
     <t>QA6</t>
   </si>
   <si>
-    <t>Batch1</t>
-  </si>
-  <si>
-    <t>PriceOverride_Ext</t>
-  </si>
-  <si>
-    <t>Account_No--21202314931||MSISDN--97470173402||SIM--8942702111334344224||PlanName--Postpaid.Basic Promotion||OverrideAmt--0||</t>
-  </si>
-  <si>
-    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe</t>
-  </si>
-  <si>
-    <t>HANIFKHAN</t>
-  </si>
-  <si>
-    <t>Eid@786555%</t>
+    <t>ConsumerFixedLine_Bulk</t>
+  </si>
+  <si>
+    <t>AccontSearch_FL</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1639,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1660,7 +1648,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1698,15 +1686,6 @@
       </c>
       <c r="C2" t="s">
         <v>306</v>
-      </c>
-      <c r="D2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F2" t="s">
-        <v>312</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
@@ -1723,8 +1702,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="A2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,10 +1712,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="128.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1769,29 +1748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1812,10 +1769,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E487"/>
+  <dimension ref="A1:E495"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="A492" sqref="A492:A495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8825,6 +8782,125 @@
       </c>
       <c r="E487" s="5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" s="3">
+        <v>1</v>
+      </c>
+      <c r="B489" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C489" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D489" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E489" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" s="3">
+        <v>2</v>
+      </c>
+      <c r="B490" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C490" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D490" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E490" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" s="3">
+        <v>3</v>
+      </c>
+      <c r="B491" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C491" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D491" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E491" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="3">
+        <v>4</v>
+      </c>
+      <c r="B492" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D492" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E492" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" s="3">
+        <v>5</v>
+      </c>
+      <c r="B493" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C493" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D493" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E493" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" s="3">
+        <v>6</v>
+      </c>
+      <c r="B494" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C494" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D494" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E494" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" s="3">
+        <v>7</v>
+      </c>
+      <c r="B495" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C495" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D495" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E495" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sravanireddyc\Desktop\wr\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GarbayaZ\Desktop\wokrspace\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="311">
   <si>
     <t>Application_Details</t>
   </si>
@@ -962,12 +962,18 @@
   </si>
   <si>
     <t>AccontSearch_FL</t>
+  </si>
+  <si>
+    <t>Batch1</t>
+  </si>
+  <si>
+    <t>Ext_Cust</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1712,7 +1718,7 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -1748,7 +1754,26 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="319">
   <si>
     <t>Application_Details</t>
   </si>
@@ -943,9 +943,6 @@
     <t>Project_Name</t>
   </si>
   <si>
-    <t>Olympus</t>
-  </si>
-  <si>
     <t>Cancel_Order</t>
   </si>
   <si>
@@ -955,9 +952,6 @@
     <t>To Cancel Open Orders</t>
   </si>
   <si>
-    <t>QA6</t>
-  </si>
-  <si>
     <t>ConsumerFixedLine_Bulk</t>
   </si>
   <si>
@@ -968,6 +962,36 @@
   </si>
   <si>
     <t>Ext_Cust</t>
+  </si>
+  <si>
+    <t>MSISDN--97440062498||AccountNo--69025712181||BillingProfile--1-VRPQOV7||PlanName--5 Mb Superfast Broadband and Home Phone - New||Service_Point--204772_004||OSM_CPE--CP1734RAUWZ||OSM_OUI--101331||OSM_CPEP--Technicolor TG789vac v2||ONT--ALCLF86026BF||OSM_CardID--1||OSM_PortID--1||OverrideAmt--145||</t>
+  </si>
+  <si>
+    <t>Bussiness</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>zakigarbaya</t>
+  </si>
+  <si>
+    <t>Welcome@2</t>
+  </si>
+  <si>
+    <t>http://10.160.222.104:7003/OrderManagement/Login.jsp</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>testing123</t>
+  </si>
+  <si>
+    <t>IE</t>
   </si>
 </sst>
 </file>
@@ -1643,9 +1667,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1654,7 +1678,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1688,13 +1712,45 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>311</v>
+      </c>
+      <c r="D2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F2" t="s">
+        <v>314</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -1721,7 +1777,7 @@
     <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1762,16 +1818,19 @@
         <v>109</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>108</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1796,8 +1855,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E495"/>
   <sheetViews>
-    <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="A492" sqref="A492:A495"/>
+    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:E495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8763,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C485" s="5" t="s">
         <v>12</v>
@@ -8780,16 +8839,16 @@
         <v>2</v>
       </c>
       <c r="B486" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C486" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C486" s="5" t="s">
+      <c r="D486" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E486" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="D486" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E486" s="5" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -8797,7 +8856,7 @@
         <v>3</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>25</v>
@@ -8814,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C489" s="6" t="s">
         <v>12</v>
@@ -8831,10 +8890,10 @@
         <v>2</v>
       </c>
       <c r="B490" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C490" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D490" s="6" t="s">
         <v>15</v>
@@ -8848,7 +8907,7 @@
         <v>3</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C491" s="6" t="s">
         <v>97</v>
@@ -8865,7 +8924,7 @@
         <v>4</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C492" s="5" t="s">
         <v>25</v>
@@ -8882,7 +8941,7 @@
         <v>5</v>
       </c>
       <c r="B493" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C493" s="6" t="s">
         <v>98</v>
@@ -8899,7 +8958,7 @@
         <v>6</v>
       </c>
       <c r="B494" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C494" s="6" t="s">
         <v>99</v>
@@ -8912,21 +8971,10 @@
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="3">
-        <v>7</v>
-      </c>
-      <c r="B495" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C495" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D495" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E495" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="B495" s="8"/>
+      <c r="C495" s="6"/>
+      <c r="D495" s="6"/>
+      <c r="E495" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GarbayaZ\Desktop\wokrspace\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LakhaniB2\Desktop\Imp Docs\Bulk\VFQA-Parallel\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="314">
   <si>
     <t>Application_Details</t>
   </si>
@@ -961,37 +961,22 @@
     <t>Batch1</t>
   </si>
   <si>
-    <t>Ext_Cust</t>
-  </si>
-  <si>
-    <t>MSISDN--97440062498||AccountNo--69025712181||BillingProfile--1-VRPQOV7||PlanName--5 Mb Superfast Broadband and Home Phone - New||Service_Point--204772_004||OSM_CPE--CP1734RAUWZ||OSM_OUI--101331||OSM_CPEP--Technicolor TG789vac v2||ONT--ALCLF86026BF||OSM_CardID--1||OSM_PortID--1||OverrideAmt--145||</t>
-  </si>
-  <si>
     <t>Bussiness</t>
   </si>
   <si>
     <t>Production</t>
   </si>
   <si>
-    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>zakigarbaya</t>
-  </si>
-  <si>
-    <t>Welcome@2</t>
-  </si>
-  <si>
-    <t>http://10.160.222.104:7003/OrderManagement/Login.jsp</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>testing123</t>
-  </si>
-  <si>
-    <t>IE</t>
+    <t>Account_No--14758330753||MSISDN--97474064688||SIM--8942702111235137495||PlanName--Postpaid Data Plan 500 Promotion||</t>
+  </si>
+  <si>
+    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe</t>
+  </si>
+  <si>
+    <t>brijeshlakhani</t>
+  </si>
+  <si>
+    <t>etihad@1234</t>
   </si>
 </sst>
 </file>
@@ -1667,9 +1652,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1678,7 +1663,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1712,45 +1697,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" t="s">
         <v>311</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>312</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>313</v>
-      </c>
-      <c r="F2" t="s">
-        <v>314</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E3" t="s">
-        <v>316</v>
-      </c>
-      <c r="F3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G3" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -1774,10 +1736,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="119.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1824,13 +1786,13 @@
         <v>108</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>305</v>
+        <v>132</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>308</v>
+        <v>115</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1855,7 +1817,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
+    <sheetView topLeftCell="A477" workbookViewId="0">
       <selection activeCell="A495" sqref="A495:E495"/>
     </sheetView>
   </sheetViews>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LakhaniB2\Desktop\Imp Docs\Bulk\VFQA-Parallel\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Work_Giri\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="251">
   <si>
     <t>Application_Details</t>
   </si>
@@ -286,18 +286,6 @@
     <t>Discounts</t>
   </si>
   <si>
-    <t>LogoutSSH</t>
-  </si>
-  <si>
-    <t>Billgeneration</t>
-  </si>
-  <si>
-    <t>LoginSSH</t>
-  </si>
-  <si>
-    <t>BRM_Putty</t>
-  </si>
-  <si>
     <t>URL/HOST</t>
   </si>
   <si>
@@ -442,24 +430,9 @@
     <t>EnterprisePrepaid_Provision</t>
   </si>
   <si>
-    <t>LocalCall</t>
-  </si>
-  <si>
-    <t>PrevCheckBalance</t>
-  </si>
-  <si>
-    <t>PostCheckBalance</t>
-  </si>
-  <si>
-    <t>LocalCallCharging</t>
-  </si>
-  <si>
     <t>InvoiceToPDF_Generation</t>
   </si>
   <si>
-    <t>Invoicegeneration</t>
-  </si>
-  <si>
     <t>Plan selection &amp; order submition</t>
   </si>
   <si>
@@ -631,156 +604,9 @@
     <t>Making a call after Bar</t>
   </si>
   <si>
-    <t>DunningProcess</t>
-  </si>
-  <si>
-    <t>Dunning Process</t>
-  </si>
-  <si>
-    <t>DBConnection</t>
-  </si>
-  <si>
-    <t>BRM_DB</t>
-  </si>
-  <si>
-    <t>Connecting to BRM DB</t>
-  </si>
-  <si>
-    <t>BillPoID</t>
-  </si>
-  <si>
-    <t>Getting Bill PoID   from DB</t>
-  </si>
-  <si>
-    <t>DBDisconnection</t>
-  </si>
-  <si>
-    <t>DB Disconnected</t>
-  </si>
-  <si>
-    <t>Collections</t>
-  </si>
-  <si>
-    <t>Collection Commands</t>
-  </si>
-  <si>
-    <t>DunningAction</t>
-  </si>
-  <si>
-    <t>CollectionExit</t>
-  </si>
-  <si>
-    <t>SetCallCapabilities</t>
-  </si>
-  <si>
-    <t>Dialer</t>
-  </si>
-  <si>
-    <t>InternationalCall</t>
-  </si>
-  <si>
-    <t>InternationalCallCharging</t>
-  </si>
-  <si>
-    <t>International Call Charging</t>
-  </si>
-  <si>
-    <t>LocalSMS</t>
-  </si>
-  <si>
-    <t>setMessengerCapabilities</t>
-  </si>
-  <si>
-    <t>smsSender</t>
-  </si>
-  <si>
-    <t>SMS Sender</t>
-  </si>
-  <si>
-    <t>LocalSMSCharging</t>
-  </si>
-  <si>
-    <t>InternationalSMS</t>
-  </si>
-  <si>
-    <t>InternationalSMSCharging</t>
-  </si>
-  <si>
-    <t>International SMS Charging</t>
-  </si>
-  <si>
-    <t>BalanceCheck</t>
-  </si>
-  <si>
-    <t>BalanceCheckDialer</t>
-  </si>
-  <si>
-    <t>SetUpMobileDevice</t>
-  </si>
-  <si>
-    <t>RestartMobile</t>
-  </si>
-  <si>
-    <t>ConfigureSMSC</t>
-  </si>
-  <si>
-    <t>Recharge</t>
-  </si>
-  <si>
-    <t>RechargeDialer</t>
-  </si>
-  <si>
-    <t>VerifyRecharge</t>
-  </si>
-  <si>
-    <t>RechargeUSSD</t>
-  </si>
-  <si>
-    <t>FlexBalanceCheck</t>
-  </si>
-  <si>
-    <t>ProductInfo_USSD</t>
-  </si>
-  <si>
-    <t>InvokeUSSDMenu</t>
-  </si>
-  <si>
-    <t>USSDJourney</t>
-  </si>
-  <si>
-    <t>USSDCleaner</t>
-  </si>
-  <si>
-    <t>ProductInfoNotification</t>
-  </si>
-  <si>
-    <t>Recharge_USSDMenu</t>
-  </si>
-  <si>
-    <t>PunchRechargePIN</t>
-  </si>
-  <si>
-    <t>ProductActivation_USSD_Prepaid</t>
-  </si>
-  <si>
-    <t>VerifyProductActivationPrepaid</t>
-  </si>
-  <si>
     <t>FL_ONT_CPE_Replacement</t>
   </si>
   <si>
-    <t>Postpaid_USSD_Act-DeAct</t>
-  </si>
-  <si>
-    <t>Invoke</t>
-  </si>
-  <si>
-    <t>SearchAsset</t>
-  </si>
-  <si>
-    <t>CheckOrder</t>
-  </si>
-  <si>
     <t>CheckUnBarringCall</t>
   </si>
   <si>
@@ -850,96 +676,6 @@
     <t>Credit Limit Set</t>
   </si>
   <si>
-    <t>XML Invoicegeneration</t>
-  </si>
-  <si>
-    <t>BillSummary</t>
-  </si>
-  <si>
-    <t>DueAmount</t>
-  </si>
-  <si>
-    <t>HappyOffers</t>
-  </si>
-  <si>
-    <t>PJM_Login</t>
-  </si>
-  <si>
-    <t>PJM_Upload</t>
-  </si>
-  <si>
-    <t>PJM_APP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Launching the browser </t>
-  </si>
-  <si>
-    <t>Uploading File</t>
-  </si>
-  <si>
-    <t>ProductDeActivation_USSD_Prepaid</t>
-  </si>
-  <si>
-    <t>VerifyProductDeActivationPrepaid</t>
-  </si>
-  <si>
-    <t>BillEnquiryDialler</t>
-  </si>
-  <si>
-    <t>Extracting Bill via USSD</t>
-  </si>
-  <si>
-    <t>BillPayment_USSD</t>
-  </si>
-  <si>
-    <t>setMCareCapabilities</t>
-  </si>
-  <si>
-    <t>verifyMCareLogin</t>
-  </si>
-  <si>
-    <t>verifyPlanNameMCare</t>
-  </si>
-  <si>
-    <t>billEnquiryMCare</t>
-  </si>
-  <si>
-    <t>Verifying Happy Offers</t>
-  </si>
-  <si>
-    <t>Validating the Bill Amount</t>
-  </si>
-  <si>
-    <t>Capturing the Existing Bill Amount</t>
-  </si>
-  <si>
-    <t>Prepaid_Happy_Offers_USSD</t>
-  </si>
-  <si>
-    <t>Fetching Bill Amount from Siebel</t>
-  </si>
-  <si>
-    <t>BillEnquiry_USSD</t>
-  </si>
-  <si>
-    <t>MCare_BillEnquiry</t>
-  </si>
-  <si>
-    <t>MCare_VerifyPlanName</t>
-  </si>
-  <si>
-    <t>MVCareBill</t>
-  </si>
-  <si>
-    <t>To Fetch Mcare Fetch</t>
-  </si>
-  <si>
-    <t>GetZipFile</t>
-  </si>
-  <si>
-    <t>ZIP XML File</t>
-  </si>
-  <si>
     <t>Project_Name</t>
   </si>
   <si>
@@ -977,6 +713,81 @@
   </si>
   <si>
     <t>etihad@1234</t>
+  </si>
+  <si>
+    <t>Cancel_Pending_Order</t>
+  </si>
+  <si>
+    <t>DropPendingOrder</t>
+  </si>
+  <si>
+    <t>To Drop Pending Orders</t>
+  </si>
+  <si>
+    <t>MPLS</t>
+  </si>
+  <si>
+    <t>Suspend_Account</t>
+  </si>
+  <si>
+    <t>Suspension_Account</t>
+  </si>
+  <si>
+    <t>FL_Disconnect</t>
+  </si>
+  <si>
+    <t>FL_Disconnection</t>
+  </si>
+  <si>
+    <t>UpgradePromotion_DAPN</t>
+  </si>
+  <si>
+    <t>Upgradation of DAPN Plan</t>
+  </si>
+  <si>
+    <t>Get_PUK</t>
+  </si>
+  <si>
+    <t>getPUK</t>
+  </si>
+  <si>
+    <t>Adjustments_BillingProfile</t>
+  </si>
+  <si>
+    <t>Adjustments_BillingProfileLevel</t>
+  </si>
+  <si>
+    <t>Adjustments</t>
+  </si>
+  <si>
+    <t>Adjustments_Bill</t>
+  </si>
+  <si>
+    <t>Adjustments_BillLevel</t>
+  </si>
+  <si>
+    <t>Adjustments_Item</t>
+  </si>
+  <si>
+    <t>Adjustments_ItemLevel</t>
+  </si>
+  <si>
+    <t>HomeMove</t>
+  </si>
+  <si>
+    <t>SharedBundleProvisioning</t>
+  </si>
+  <si>
+    <t>SharedBundleDisconnection</t>
+  </si>
+  <si>
+    <t>DisconnectSharedBundle</t>
+  </si>
+  <si>
+    <t>OrderReplication</t>
+  </si>
+  <si>
+    <t>ReplicateOrder</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1465,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1674,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1697,22 +1508,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1562,10 @@
         <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>48</v>
@@ -1777,22 +1588,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1815,10 +1626,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E495"/>
+  <dimension ref="A1:E391"/>
   <sheetViews>
-    <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:E495"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="B395" sqref="B395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -1870,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -1887,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
@@ -1904,7 +1715,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -1921,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
@@ -1938,7 +1749,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -1955,16 +1766,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2032,7 +1843,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>25</v>
@@ -2049,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -2066,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
@@ -2083,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>17</v>
@@ -2100,7 +1911,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
@@ -2117,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>21</v>
@@ -2134,7 +1945,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
@@ -2151,16 +1962,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2228,7 +2039,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>25</v>
@@ -2245,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -2262,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>14</v>
@@ -2279,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>17</v>
@@ -2296,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>19</v>
@@ -2313,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>21</v>
@@ -2330,7 +2141,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>23</v>
@@ -2347,16 +2158,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2364,16 +2175,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2441,7 +2252,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>25</v>
@@ -2458,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -2475,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>39</v>
@@ -2492,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>41</v>
@@ -2509,7 +2320,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>19</v>
@@ -2526,7 +2337,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>21</v>
@@ -2543,7 +2354,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>23</v>
@@ -2560,16 +2371,16 @@
         <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,7 +2448,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>25</v>
@@ -2654,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
@@ -2671,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>39</v>
@@ -2688,7 +2499,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>41</v>
@@ -2705,7 +2516,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>19</v>
@@ -2722,7 +2533,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>21</v>
@@ -2739,7 +2550,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>23</v>
@@ -2756,16 +2567,16 @@
         <v>7</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2833,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>25</v>
@@ -2853,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -2869,7 +2680,9 @@
       <c r="A69" s="3">
         <v>2</v>
       </c>
-      <c r="B69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="C69" s="5" t="s">
         <v>39</v>
       </c>
@@ -2884,7 +2697,9 @@
       <c r="A70" s="3">
         <v>3</v>
       </c>
-      <c r="B70" s="4"/>
+      <c r="B70" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="C70" s="5" t="s">
         <v>41</v>
       </c>
@@ -2899,7 +2714,9 @@
       <c r="A71" s="3">
         <v>4</v>
       </c>
-      <c r="B71" s="4"/>
+      <c r="B71" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="C71" s="5" t="s">
         <v>19</v>
       </c>
@@ -2914,7 +2731,9 @@
       <c r="A72" s="3">
         <v>5</v>
       </c>
-      <c r="B72" s="4"/>
+      <c r="B72" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="C72" s="5" t="s">
         <v>21</v>
       </c>
@@ -2930,7 +2749,7 @@
         <v>6</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>23</v>
@@ -2947,16 +2766,16 @@
         <v>7</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2964,16 +2783,16 @@
         <v>8</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3041,7 +2860,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>25</v>
@@ -3274,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>12</v>
@@ -3306,10 +3125,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>15</v>
@@ -3383,7 +3202,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>25</v>
@@ -3904,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>12</v>
@@ -3951,16 +3770,16 @@
         <v>4</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3998,7 +3817,7 @@
         <v>7</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>25</v>
@@ -4050,13 +3869,13 @@
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4116,13 +3935,13 @@
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="5" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4198,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>12</v>
@@ -4215,10 +4034,10 @@
         <v>2</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>15</v>
@@ -4232,7 +4051,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>25</v>
@@ -4454,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>12</v>
@@ -4471,16 +4290,16 @@
         <v>2</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4488,7 +4307,7 @@
         <v>3</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>25</v>
@@ -4506,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>12</v>
@@ -4523,16 +4342,16 @@
         <v>2</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4540,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>25</v>
@@ -4558,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>12</v>
@@ -4575,16 +4394,16 @@
         <v>2</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4592,7 +4411,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>25</v>
@@ -4610,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>12</v>
@@ -4627,16 +4446,16 @@
         <v>2</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4644,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>25</v>
@@ -4661,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>12</v>
@@ -4678,16 +4497,16 @@
         <v>2</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4695,7 +4514,7 @@
         <v>3</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>25</v>
@@ -4712,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>12</v>
@@ -4729,16 +4548,16 @@
         <v>2</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4746,7 +4565,7 @@
         <v>3</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>25</v>
@@ -4770,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>12</v>
@@ -4787,16 +4606,16 @@
         <v>2</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4804,7 +4623,7 @@
         <v>3</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>25</v>
@@ -4828,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>12</v>
@@ -4845,16 +4664,16 @@
         <v>2</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4922,7 +4741,7 @@
         <v>7</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>25</v>
@@ -4939,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>12</v>
@@ -4956,16 +4775,16 @@
         <v>2</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4973,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>25</v>
@@ -4990,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>12</v>
@@ -5007,16 +4826,16 @@
         <v>2</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5024,7 +4843,7 @@
         <v>3</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>25</v>
@@ -5041,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>12</v>
@@ -5058,16 +4877,16 @@
         <v>2</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5075,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>25</v>
@@ -5092,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>12</v>
@@ -5109,16 +4928,16 @@
         <v>2</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5186,7 +5005,7 @@
         <v>7</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>25</v>
@@ -5204,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>12</v>
@@ -5221,16 +5040,16 @@
         <v>2</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5238,7 +5057,7 @@
         <v>3</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>25</v>
@@ -5254,8 +5073,8 @@
       <c r="A245" s="3">
         <v>1</v>
       </c>
-      <c r="B245" s="8" t="s">
-        <v>126</v>
+      <c r="B245" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>12</v>
@@ -5263,7 +5082,7 @@
       <c r="D245" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E245" s="6" t="s">
+      <c r="E245" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5271,473 +5090,507 @@
       <c r="A246" s="3">
         <v>2</v>
       </c>
-      <c r="B246" s="8" t="s">
-        <v>126</v>
+      <c r="B246" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E246" s="6" t="s">
-        <v>126</v>
+      <c r="E246" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>3</v>
       </c>
-      <c r="B247" s="8" t="s">
-        <v>126</v>
+      <c r="B247" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>4</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
-        <v>1</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>85</v>
+        <v>5</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E249" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
-        <v>2</v>
-      </c>
-      <c r="B250" s="8" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E250" s="6" t="s">
-        <v>202</v>
+        <v>15</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
-        <v>3</v>
-      </c>
-      <c r="B251" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>88</v>
+        <v>7</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E251" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
-        <v>4</v>
-      </c>
-      <c r="B252" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C252" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E252" s="6" t="s">
-        <v>206</v>
+        <v>5</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>2</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>200</v>
+        <v>92</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>271</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>205</v>
+        <v>92</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>299</v>
+        <v>92</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>300</v>
+        <v>132</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>278</v>
+        <v>99</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>279</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>11</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="3">
-        <v>2</v>
-      </c>
-      <c r="B265" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D265" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E265" s="6" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
-        <v>3</v>
-      </c>
-      <c r="B266" s="8" t="s">
-        <v>198</v>
+        <v>1</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E266" s="6" t="s">
-        <v>26</v>
+      <c r="E266" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
-        <v>4</v>
-      </c>
-      <c r="B267" s="8" t="s">
-        <v>198</v>
+        <v>2</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E267" s="6" t="s">
-        <v>202</v>
+        <v>15</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
-        <v>5</v>
-      </c>
-      <c r="B268" s="8" t="s">
-        <v>198</v>
+        <v>3</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E268" s="6" t="s">
-        <v>204</v>
+      <c r="E268" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
-        <v>6</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>198</v>
+        <v>4</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E269" s="6" t="s">
-        <v>206</v>
+        <v>15</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
-        <v>7</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>198</v>
+        <v>5</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E270" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
+        <v>6</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <v>7</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
         <v>8</v>
       </c>
-      <c r="B271" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E271" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="3">
-        <v>9</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D272" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E272" s="6" t="s">
+      <c r="B273" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E273" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
-        <v>1</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D274" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E274" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
+        <v>2</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
         <v>3</v>
       </c>
-      <c r="B276" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C276" s="5" t="s">
+      <c r="B277" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C277" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D276" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E276" s="6" t="s">
+      <c r="D277" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E277" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E278" s="6" t="s">
         <v>13</v>
@@ -5745,3198 +5598,1581 @@
     </row>
     <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>210</v>
+        <v>44</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>7</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
+        <v>8</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
         <v>1</v>
       </c>
-      <c r="B282" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C282" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D282" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E282" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="3">
+      <c r="B284" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E284" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
         <v>2</v>
       </c>
-      <c r="B283" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E283" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="3">
+      <c r="B285" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E285" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
         <v>3</v>
       </c>
-      <c r="B284" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D284" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E284" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="3">
-        <v>4</v>
-      </c>
-      <c r="B285" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D285" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E285" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="3">
-        <v>5</v>
-      </c>
       <c r="B286" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>138</v>
+        <v>192</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="8"/>
-      <c r="B287" s="8"/>
-      <c r="C287" s="8"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
-    </row>
-    <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>1</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C288" s="5" t="s">
-        <v>136</v>
+        <v>194</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>2</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>211</v>
+        <v>194</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>3</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C290" s="5" t="s">
-        <v>212</v>
+        <v>194</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>1</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>2</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <v>3</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="11">
+        <v>1</v>
+      </c>
+      <c r="B296" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C296" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E296" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="11">
+        <v>2</v>
+      </c>
+      <c r="B297" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C297" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E297" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="11">
+        <v>3</v>
+      </c>
+      <c r="B298" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C298" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D298" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E298" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="11">
         <v>4</v>
       </c>
-      <c r="B291" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D291" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E291" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="3">
-        <v>5</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C292" s="5" t="s">
+      <c r="B299" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C299" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D299" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E299" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="11">
+        <v>5</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C300" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D300" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E300" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="11">
+        <v>6</v>
+      </c>
+      <c r="B301" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C301" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D301" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E301" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="11">
+        <v>7</v>
+      </c>
+      <c r="B302" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D302" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E302" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="11"/>
+      <c r="B303" s="11"/>
+      <c r="C303" s="11"/>
+      <c r="D303" s="11"/>
+      <c r="E303" s="11"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="11">
+        <v>1</v>
+      </c>
+      <c r="B304" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C304" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E304" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="11">
+        <v>2</v>
+      </c>
+      <c r="B305" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C305" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D305" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E305" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="11">
+        <v>3</v>
+      </c>
+      <c r="B306" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C306" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D306" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E306" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="11">
+        <v>4</v>
+      </c>
+      <c r="B307" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C307" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D307" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E307" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="11">
+        <v>5</v>
+      </c>
+      <c r="B308" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C308" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D308" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E308" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="11">
+        <v>6</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C309" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D309" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E309" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="11">
+        <v>7</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C310" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D310" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E310" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="11">
+        <v>8</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C311" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D311" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E311" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="11">
+        <v>9</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C312" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D312" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E312" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="11">
+        <v>10</v>
+      </c>
+      <c r="B313" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C313" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E313" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="11">
+        <v>11</v>
+      </c>
+      <c r="B314" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C314" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D314" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E314" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="11">
+        <v>12</v>
+      </c>
+      <c r="B315" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C315" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D315" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E315" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="11"/>
+      <c r="B316" s="12"/>
+      <c r="C316" s="14"/>
+      <c r="D316" s="14"/>
+      <c r="E316" s="14"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <v>1</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E317" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
+        <v>2</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
+        <v>3</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <v>1</v>
+      </c>
+      <c r="B321" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D292" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E292" s="6" t="s">
+      <c r="C321" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
+        <v>2</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C322" s="5" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="8"/>
-      <c r="B293" s="8"/>
-      <c r="C293" s="8"/>
-      <c r="D293" s="8"/>
-      <c r="E293" s="8"/>
-    </row>
-    <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="3">
+      <c r="D322" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
+        <v>3</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
         <v>1</v>
       </c>
-      <c r="B294" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C294" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D294" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E294" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3">
+      <c r="B325" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E325" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
         <v>2</v>
       </c>
-      <c r="B295" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C295" s="5" t="s">
+      <c r="B326" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D295" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E295" s="6" t="s">
+      <c r="C326" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E326" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
+        <v>3</v>
+      </c>
+      <c r="B327" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="3">
+      <c r="C327" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E327" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
+        <v>4</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <v>5</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E329" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
+        <v>6</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E330" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
+        <v>1</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E332" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
+        <v>2</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E333" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
         <v>3</v>
       </c>
-      <c r="B296" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D296" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E296" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="3">
-        <v>4</v>
-      </c>
-      <c r="B297" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D297" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E297" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="3">
-        <v>5</v>
-      </c>
-      <c r="B298" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D298" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E298" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="8"/>
-      <c r="B299" s="8"/>
-      <c r="C299" s="8"/>
-      <c r="D299" s="8"/>
-      <c r="E299" s="8"/>
-    </row>
-    <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="3">
+      <c r="B334" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E334" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
         <v>1</v>
       </c>
-      <c r="B300" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D300" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E300" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="3">
+      <c r="B336" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E336" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
         <v>2</v>
       </c>
-      <c r="B301" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D301" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E301" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="3">
+      <c r="B337" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E337" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
         <v>3</v>
       </c>
-      <c r="B302" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C302" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D302" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E302" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="3">
-        <v>4</v>
-      </c>
-      <c r="B303" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D303" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E303" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="3">
-        <v>5</v>
-      </c>
-      <c r="B304" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D304" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E304" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="3">
+      <c r="B338" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E338" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
         <v>1</v>
       </c>
-      <c r="B306" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C306" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D306" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E306" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="3">
+      <c r="B340" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E340" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
         <v>2</v>
       </c>
-      <c r="B307" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C307" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D307" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E307" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="3">
+      <c r="B341" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E341" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
         <v>3</v>
       </c>
-      <c r="B308" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C308" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D308" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E308" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="3">
-        <v>4</v>
-      </c>
-      <c r="B309" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D309" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E309" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="3">
+      <c r="B342" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E342" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
         <v>1</v>
       </c>
-      <c r="B311" s="8" t="s">
+      <c r="B344" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E344" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
+        <v>2</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C345" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C311" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D311" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E311" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="3">
+      <c r="D345" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E345" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
+        <v>3</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E346" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
+        <v>1</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E348" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
         <v>2</v>
       </c>
-      <c r="B312" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C312" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D312" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E312" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="3">
+      <c r="B349" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E349" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
         <v>3</v>
       </c>
-      <c r="B313" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C313" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D313" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E313" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="3">
-        <v>4</v>
-      </c>
-      <c r="B314" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C314" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D314" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E314" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="3">
+      <c r="B350" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E350" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
         <v>1</v>
       </c>
-      <c r="B316" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C316" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D316" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E316" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="3">
+      <c r="B352" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E352" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
         <v>2</v>
       </c>
-      <c r="B317" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C317" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D317" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E317" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="3">
+      <c r="B353" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E353" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
         <v>3</v>
       </c>
-      <c r="B318" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C318" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D318" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E318" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="3">
-        <v>4</v>
-      </c>
-      <c r="B319" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C319" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D319" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E319" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="3">
-        <v>5</v>
-      </c>
-      <c r="B320" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C320" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D320" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E320" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="3">
+      <c r="B354" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E354" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
         <v>1</v>
       </c>
-      <c r="B322" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C322" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D322" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E322" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="3">
+      <c r="B356" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D356" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E356" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
         <v>2</v>
       </c>
-      <c r="B323" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C323" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D323" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E323" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="3">
+      <c r="B357" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E357" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
         <v>3</v>
       </c>
-      <c r="B324" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C324" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D324" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E324" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="3">
-        <v>4</v>
-      </c>
-      <c r="B325" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C325" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D325" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E325" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="3">
-        <v>5</v>
-      </c>
-      <c r="B326" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C326" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D326" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E326" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="3">
-        <v>6</v>
-      </c>
-      <c r="B327" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C327" s="5" t="s">
+      <c r="B358" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D327" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E327" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="3">
+      <c r="C358" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E358" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
         <v>1</v>
       </c>
-      <c r="B329" s="8" t="s">
+      <c r="B360" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C329" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D329" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E329" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="3">
-        <v>2</v>
-      </c>
-      <c r="B330" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C330" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D330" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E330" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="3">
-        <v>3</v>
-      </c>
-      <c r="B331" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C331" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D331" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E331" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="3">
-        <v>4</v>
-      </c>
-      <c r="B332" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C332" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D332" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E332" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="3">
-        <v>5</v>
-      </c>
-      <c r="B333" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D333" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E333" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="3">
-        <v>6</v>
-      </c>
-      <c r="B334" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C334" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D334" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E334" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="3">
-        <v>7</v>
-      </c>
-      <c r="B335" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C335" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D335" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E335" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="3">
-        <v>1</v>
-      </c>
-      <c r="B337" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D337" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E337" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="3">
-        <v>2</v>
-      </c>
-      <c r="B338" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C338" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D338" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E338" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="3">
-        <v>3</v>
-      </c>
-      <c r="B339" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C339" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D339" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E339" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="3">
-        <v>4</v>
-      </c>
-      <c r="B340" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C340" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D340" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E340" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="3">
-        <v>5</v>
-      </c>
-      <c r="B341" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C341" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D341" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E341" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="3">
-        <v>6</v>
-      </c>
-      <c r="B342" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C342" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D342" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E342" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="3">
-        <v>7</v>
-      </c>
-      <c r="B343" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C343" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D343" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E343" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="3">
-        <v>1</v>
-      </c>
-      <c r="B345" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C345" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D345" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E345" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="3">
-        <v>2</v>
-      </c>
-      <c r="B346" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C346" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D346" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E346" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="3">
-        <v>3</v>
-      </c>
-      <c r="B347" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C347" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D347" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E347" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="3">
-        <v>1</v>
-      </c>
-      <c r="B349" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C349" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D349" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E349" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="3">
-        <v>2</v>
-      </c>
-      <c r="B350" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C350" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D350" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E350" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="3">
-        <v>3</v>
-      </c>
-      <c r="B351" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C351" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D351" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E351" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="3">
-        <v>4</v>
-      </c>
-      <c r="B352" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C352" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D352" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E352" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="3">
-        <v>5</v>
-      </c>
-      <c r="B353" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C353" s="5" t="s">
+      <c r="C360" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D353" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E353" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="3">
-        <v>6</v>
-      </c>
-      <c r="B354" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D354" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E354" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="3">
-        <v>7</v>
-      </c>
-      <c r="B355" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C355" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D355" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E355" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="3">
-        <v>8</v>
-      </c>
-      <c r="B356" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C356" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D356" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E356" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="3">
-        <v>9</v>
-      </c>
-      <c r="B357" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C357" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D357" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E357" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="3">
-        <v>10</v>
-      </c>
-      <c r="B358" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D358" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E358" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="3">
-        <v>11</v>
-      </c>
-      <c r="B359" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C359" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D359" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E359" s="6" t="s">
-        <v>25</v>
+      <c r="D360" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E360" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
-        <v>1</v>
-      </c>
-      <c r="B361" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C361" s="5" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E361" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E361" s="6" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
-        <v>2</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C362" s="5" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E362" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="3">
-        <v>3</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C363" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D363" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E363" s="5" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="E362" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
-        <v>4</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C364" s="5" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E364" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="E364" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
-        <v>5</v>
-      </c>
-      <c r="B365" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C365" s="5" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E365" s="5" t="s">
-        <v>22</v>
+      <c r="E365" s="6" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
-        <v>6</v>
-      </c>
-      <c r="B366" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C366" s="5" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E366" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="3">
-        <v>7</v>
-      </c>
-      <c r="B367" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C367" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D367" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E367" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E366" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
+        <v>1</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E368" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>96</v>
+        <v>245</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>96</v>
+        <v>245</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>96</v>
+        <v>245</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>96</v>
+        <v>245</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E372" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="3">
-        <v>5</v>
-      </c>
-      <c r="B373" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C373" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D373" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E373" s="6" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E374" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="D375" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E375" s="6" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E376" s="6" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E377" s="6" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E378" s="6" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E379" s="6" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E380" s="6" t="s">
-        <v>103</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <v>8</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C381" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D381" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E381" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
-        <v>1</v>
-      </c>
-      <c r="B382" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C382" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B382" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C382" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E382" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E382" s="6" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
-        <v>2</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C383" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E383" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="3">
-        <v>3</v>
-      </c>
-      <c r="B384" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C384" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D384" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E384" s="5" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="E383" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
-        <v>4</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C385" s="5" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C385" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E385" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="E385" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
-        <v>5</v>
-      </c>
-      <c r="B386" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C386" s="5" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C386" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="D386" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E386" s="5" t="s">
-        <v>22</v>
+      <c r="E386" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
-        <v>6</v>
-      </c>
-      <c r="B387" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C387" s="5" t="s">
-        <v>101</v>
+        <v>3</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E387" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="3">
-        <v>7</v>
-      </c>
-      <c r="B388" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C388" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D388" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E388" s="5" t="s">
-        <v>128</v>
+        <v>5</v>
+      </c>
+      <c r="E387" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
-        <v>8</v>
-      </c>
-      <c r="B389" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C389" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E389" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <v>2</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E390" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
+        <v>3</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C391" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D389" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E389" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="3">
-        <v>1</v>
-      </c>
-      <c r="B391" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C391" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D391" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="3">
-        <v>2</v>
-      </c>
-      <c r="B392" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C392" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D392" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E392" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="3">
-        <v>3</v>
-      </c>
-      <c r="B393" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C393" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D393" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E393" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="3">
-        <v>4</v>
-      </c>
-      <c r="B394" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C394" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D394" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E394" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="3">
-        <v>5</v>
-      </c>
-      <c r="B395" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C395" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D395" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E395" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="3">
-        <v>6</v>
-      </c>
-      <c r="B396" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C396" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D396" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E396" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="3">
-        <v>7</v>
-      </c>
-      <c r="B397" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C397" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D397" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E397" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="3">
-        <v>8</v>
-      </c>
-      <c r="B398" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C398" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D398" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E398" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="3">
-        <v>1</v>
-      </c>
-      <c r="B400" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C400" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D400" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E400" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="3">
-        <v>2</v>
-      </c>
-      <c r="B401" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C401" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D401" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E401" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="3">
-        <v>3</v>
-      </c>
-      <c r="B402" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C402" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D402" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E402" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="3">
-        <v>1</v>
-      </c>
-      <c r="B404" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C404" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D404" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E404" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="3">
-        <v>2</v>
-      </c>
-      <c r="B405" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C405" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D405" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E405" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="3">
-        <v>3</v>
-      </c>
-      <c r="B406" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C406" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D406" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E406" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="3">
-        <v>1</v>
-      </c>
-      <c r="B408" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C408" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D408" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E408" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="3">
-        <v>2</v>
-      </c>
-      <c r="B409" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C409" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D409" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E409" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="3">
-        <v>3</v>
-      </c>
-      <c r="B410" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C410" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D410" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E410" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="11">
-        <v>1</v>
-      </c>
-      <c r="B412" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C412" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D412" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E412" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="11">
-        <v>2</v>
-      </c>
-      <c r="B413" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C413" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D413" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E413" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="11">
-        <v>3</v>
-      </c>
-      <c r="B414" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C414" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D414" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E414" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="11">
-        <v>4</v>
-      </c>
-      <c r="B415" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C415" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D415" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E415" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="11">
-        <v>5</v>
-      </c>
-      <c r="B416" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C416" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D416" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E416" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="11">
-        <v>6</v>
-      </c>
-      <c r="B417" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C417" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D417" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E417" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="11">
-        <v>7</v>
-      </c>
-      <c r="B418" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C418" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D418" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E418" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="11"/>
-      <c r="B419" s="11"/>
-      <c r="C419" s="11"/>
-      <c r="D419" s="11"/>
-      <c r="E419" s="11"/>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" s="11">
-        <v>1</v>
-      </c>
-      <c r="B420" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C420" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D420" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E420" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="11">
-        <v>2</v>
-      </c>
-      <c r="B421" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C421" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D421" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E421" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="11">
-        <v>3</v>
-      </c>
-      <c r="B422" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C422" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D422" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E422" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="11">
-        <v>4</v>
-      </c>
-      <c r="B423" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C423" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D423" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E423" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="11">
-        <v>5</v>
-      </c>
-      <c r="B424" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C424" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D424" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E424" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="11">
-        <v>6</v>
-      </c>
-      <c r="B425" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C425" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D425" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E425" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="11">
-        <v>7</v>
-      </c>
-      <c r="B426" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C426" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D426" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E426" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="11">
-        <v>8</v>
-      </c>
-      <c r="B427" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C427" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D427" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E427" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="11">
-        <v>9</v>
-      </c>
-      <c r="B428" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C428" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="D428" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E428" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="11">
-        <v>10</v>
-      </c>
-      <c r="B429" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C429" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D429" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E429" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="11">
-        <v>11</v>
-      </c>
-      <c r="B430" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C430" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D430" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E430" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="11">
-        <v>12</v>
-      </c>
-      <c r="B431" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C431" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D431" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E431" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="11"/>
-      <c r="B432" s="12"/>
-      <c r="C432" s="14"/>
-      <c r="D432" s="14"/>
-      <c r="E432" s="14"/>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="3">
-        <v>1</v>
-      </c>
-      <c r="B433" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C433" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D433" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E433" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="3">
-        <v>2</v>
-      </c>
-      <c r="B434" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C434" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D434" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E434" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="3">
-        <v>3</v>
-      </c>
-      <c r="B435" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C435" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D435" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E435" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" s="3">
-        <v>1</v>
-      </c>
-      <c r="B437" s="8"/>
-      <c r="C437" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D437" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E437" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" s="3">
-        <v>2</v>
-      </c>
-      <c r="B438" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C438" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D438" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E438" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="3">
-        <v>3</v>
-      </c>
-      <c r="B439" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C439" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D439" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E439" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="3">
-        <v>4</v>
-      </c>
-      <c r="B440" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C440" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D440" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E440" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="3">
-        <v>5</v>
-      </c>
-      <c r="B441" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C441" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D441" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E441" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" s="3">
-        <v>6</v>
-      </c>
-      <c r="B442" s="8"/>
-      <c r="C442" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D442" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E442" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="3">
-        <v>7</v>
-      </c>
-      <c r="B443" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C443" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D443" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E443" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="3">
-        <v>1</v>
-      </c>
-      <c r="B445" s="8"/>
-      <c r="C445" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D445" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E445" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="3">
-        <v>2</v>
-      </c>
-      <c r="B446" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C446" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D446" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E446" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="3">
-        <v>3</v>
-      </c>
-      <c r="B447" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C447" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D447" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E447" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="3">
-        <v>4</v>
-      </c>
-      <c r="B448" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C448" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D448" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E448" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="3">
-        <v>5</v>
-      </c>
-      <c r="B449" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C449" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D449" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E449" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="3">
-        <v>6</v>
-      </c>
-      <c r="B450" s="8"/>
-      <c r="C450" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D450" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E450" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="3">
-        <v>7</v>
-      </c>
-      <c r="B451" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C451" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D451" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E451" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" s="3">
-        <v>8</v>
-      </c>
-      <c r="B452" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C452" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D452" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E452" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="3">
-        <v>1</v>
-      </c>
-      <c r="B454" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C454" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D454" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E454" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="3">
-        <v>2</v>
-      </c>
-      <c r="B455" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C455" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D455" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E455" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="3">
-        <v>3</v>
-      </c>
-      <c r="B456" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C456" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D456" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E456" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="3">
-        <v>4</v>
-      </c>
-      <c r="B457" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C457" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D457" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E457" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="3">
-        <v>5</v>
-      </c>
-      <c r="B458" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C458" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D458" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E458" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="3">
-        <v>1</v>
-      </c>
-      <c r="B460" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C460" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D460" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E460" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="3">
-        <v>2</v>
-      </c>
-      <c r="B461" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C461" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D461" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E461" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" s="3">
-        <v>3</v>
-      </c>
-      <c r="B462" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C462" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D462" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E462" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="3">
-        <v>4</v>
-      </c>
-      <c r="B463" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C463" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D463" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E463" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="3">
-        <v>5</v>
-      </c>
-      <c r="B464" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C464" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D464" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E464" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="3">
-        <v>6</v>
-      </c>
-      <c r="B465" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C465" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D465" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E465" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="3">
-        <v>7</v>
-      </c>
-      <c r="B466" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C466" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D466" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E466" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" s="3">
-        <v>8</v>
-      </c>
-      <c r="B467" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C467" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D467" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E467" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="3">
-        <v>9</v>
-      </c>
-      <c r="B468" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C468" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D468" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E468" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="3">
-        <v>10</v>
-      </c>
-      <c r="B469" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C469" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D469" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E469" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="3">
-        <v>1</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C471" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D471" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E471" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" s="3">
-        <v>2</v>
-      </c>
-      <c r="B472" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C472" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D472" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E472" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="3">
-        <v>3</v>
-      </c>
-      <c r="B473" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C473" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D473" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E473" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="3">
-        <v>4</v>
-      </c>
-      <c r="B474" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C474" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D474" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E474" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="3">
-        <v>5</v>
-      </c>
-      <c r="B475" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C475" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D475" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E475" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="3">
-        <v>6</v>
-      </c>
-      <c r="B476" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C476" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D476" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E476" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" s="3">
-        <v>1</v>
-      </c>
-      <c r="B478" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C478" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D478" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E478" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" s="3">
-        <v>2</v>
-      </c>
-      <c r="B479" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C479" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D479" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E479" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="3">
-        <v>3</v>
-      </c>
-      <c r="B480" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C480" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D480" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E480" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="3">
-        <v>4</v>
-      </c>
-      <c r="B481" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C481" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D481" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E481" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="3">
-        <v>5</v>
-      </c>
-      <c r="B482" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C482" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D482" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E482" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="3">
-        <v>6</v>
-      </c>
-      <c r="B483" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C483" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D483" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E483" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="3">
-        <v>1</v>
-      </c>
-      <c r="B485" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C485" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D485" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E485" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="3">
-        <v>2</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C486" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D486" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E486" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="3">
-        <v>3</v>
-      </c>
-      <c r="B487" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C487" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D487" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E487" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="3">
-        <v>1</v>
-      </c>
-      <c r="B489" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C489" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D489" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E489" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" s="3">
-        <v>2</v>
-      </c>
-      <c r="B490" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C490" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D490" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E490" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="3">
-        <v>3</v>
-      </c>
-      <c r="B491" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C491" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D491" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E491" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="3">
-        <v>4</v>
-      </c>
-      <c r="B492" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C492" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D492" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E492" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="3">
-        <v>5</v>
-      </c>
-      <c r="B493" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C493" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D493" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E493" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" s="3">
-        <v>6</v>
-      </c>
-      <c r="B494" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C494" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D494" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E494" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B495" s="8"/>
-      <c r="C495" s="6"/>
-      <c r="D495" s="6"/>
-      <c r="E495" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8996,19 +7232,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9016,19 +7252,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
         <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9036,19 +7272,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9056,19 +7292,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9076,19 +7312,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9096,19 +7332,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -9116,19 +7352,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -9136,19 +7372,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
         <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -9156,19 +7392,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -9176,19 +7412,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -9196,19 +7432,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -9216,19 +7452,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -9236,19 +7472,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -9256,19 +7492,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -9276,19 +7512,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
         <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -9296,19 +7532,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -9316,19 +7552,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -9336,19 +7572,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -9356,19 +7592,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -9376,19 +7612,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -9396,19 +7632,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -9416,19 +7652,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G23" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -9436,19 +7672,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
         <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -9456,19 +7692,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -9476,19 +7712,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -9496,19 +7732,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G27" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -9516,19 +7752,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G28" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -9536,19 +7772,19 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -9556,19 +7792,19 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" t="s">
         <v>167</v>
-      </c>
-      <c r="C31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" t="s">
-        <v>149</v>
-      </c>
-      <c r="G31" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -9628,19 +7864,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9648,19 +7884,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9668,19 +7904,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9688,19 +7924,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9708,19 +7944,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9728,19 +7964,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -9748,19 +7984,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="248">
   <si>
     <t>Application_Details</t>
   </si>
@@ -694,27 +694,6 @@
     <t>AccontSearch_FL</t>
   </si>
   <si>
-    <t>Batch1</t>
-  </si>
-  <si>
-    <t>Bussiness</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>Account_No--14758330753||MSISDN--97474064688||SIM--8942702111235137495||PlanName--Postpaid Data Plan 500 Promotion||</t>
-  </si>
-  <si>
-    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe</t>
-  </si>
-  <si>
-    <t>brijeshlakhani</t>
-  </si>
-  <si>
-    <t>etihad@1234</t>
-  </si>
-  <si>
     <t>Cancel_Pending_Order</t>
   </si>
   <si>
@@ -788,6 +767,18 @@
   </si>
   <si>
     <t>ReplicateOrder</t>
+  </si>
+  <si>
+    <t>Olympus</t>
+  </si>
+  <si>
+    <t>QA6</t>
+  </si>
+  <si>
+    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>Custom</t>
   </si>
 </sst>
 </file>
@@ -951,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,6 +982,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1465,7 +1458,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1474,7 +1467,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1508,19 +1501,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="G2" t="s">
         <v>118</v>
@@ -1547,10 +1534,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="119.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1583,29 +1570,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1626,10 +1591,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E391"/>
+  <dimension ref="A1:E395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="B395" sqref="B395"/>
+    <sheetView topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="B398" sqref="B398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6363,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>12</v>
@@ -6380,16 +6345,16 @@
         <v>2</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -6397,7 +6362,7 @@
         <v>3</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C334" s="6" t="s">
         <v>25</v>
@@ -6414,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>12</v>
@@ -6431,10 +6396,10 @@
         <v>2</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>15</v>
@@ -6448,7 +6413,7 @@
         <v>3</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>25</v>
@@ -6465,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C340" s="6" t="s">
         <v>12</v>
@@ -6482,10 +6447,10 @@
         <v>2</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>15</v>
@@ -6499,7 +6464,7 @@
         <v>3</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C342" s="6" t="s">
         <v>25</v>
@@ -6516,7 +6481,7 @@
         <v>1</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>12</v>
@@ -6533,10 +6498,10 @@
         <v>2</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>15</v>
@@ -6550,7 +6515,7 @@
         <v>3</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>25</v>
@@ -6567,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>12</v>
@@ -6584,16 +6549,16 @@
         <v>2</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -6601,7 +6566,7 @@
         <v>3</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>25</v>
@@ -6618,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C352" s="6" t="s">
         <v>12</v>
@@ -6635,16 +6600,16 @@
         <v>2</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D353" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E353" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -6652,7 +6617,7 @@
         <v>3</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C354" s="6" t="s">
         <v>25</v>
@@ -6669,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>12</v>
@@ -6686,16 +6651,16 @@
         <v>2</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -6703,7 +6668,7 @@
         <v>3</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C358" s="6" t="s">
         <v>25</v>
@@ -6720,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C360" s="6" t="s">
         <v>12</v>
@@ -6737,16 +6702,16 @@
         <v>2</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E361" s="6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -6754,7 +6719,7 @@
         <v>3</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C362" s="6" t="s">
         <v>25</v>
@@ -6771,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C364" s="6" t="s">
         <v>12</v>
@@ -6788,16 +6753,16 @@
         <v>2</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -6805,7 +6770,7 @@
         <v>3</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>25</v>
@@ -6822,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>12</v>
@@ -6839,16 +6804,16 @@
         <v>2</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -6856,7 +6821,7 @@
         <v>3</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>25</v>
@@ -6873,7 +6838,7 @@
         <v>4</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>94</v>
@@ -6890,7 +6855,7 @@
         <v>5</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>95</v>
@@ -6907,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>12</v>
@@ -6924,7 +6889,7 @@
         <v>2</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>39</v>
@@ -6941,7 +6906,7 @@
         <v>3</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>41</v>
@@ -6958,7 +6923,7 @@
         <v>4</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>19</v>
@@ -6975,7 +6940,7 @@
         <v>5</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C378" s="6" t="s">
         <v>21</v>
@@ -6992,7 +6957,7 @@
         <v>6</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>23</v>
@@ -7001,7 +6966,7 @@
         <v>15</v>
       </c>
       <c r="E379" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -7009,7 +6974,7 @@
         <v>7</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>123</v>
@@ -7026,7 +6991,7 @@
         <v>8</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C381" s="6" t="s">
         <v>70</v>
@@ -7043,16 +7008,16 @@
         <v>9</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D382" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E382" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -7060,7 +7025,7 @@
         <v>10</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C383" s="6" t="s">
         <v>25</v>
@@ -7077,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C385" s="6" t="s">
         <v>12</v>
@@ -7094,16 +7059,16 @@
         <v>2</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D386" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E386" s="6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -7111,7 +7076,7 @@
         <v>3</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>25</v>
@@ -7128,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>12</v>
@@ -7145,16 +7110,16 @@
         <v>2</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D390" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E390" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -7162,7 +7127,7 @@
         <v>3</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C391" s="6" t="s">
         <v>25</v>
@@ -7172,6 +7137,57 @@
       </c>
       <c r="E391" s="6" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="19">
+        <v>1</v>
+      </c>
+      <c r="B393" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C393" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D393" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E393" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="19">
+        <v>2</v>
+      </c>
+      <c r="B394" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C394" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D394" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E394" s="20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="19">
+        <v>3</v>
+      </c>
+      <c r="B395" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C395" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D395" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E395" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Work_Giri\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AhmedS32\Desktop\WorkspaceVF\VFQA-Parallel\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestData!$A$1:$H$1</definedName>
     <definedName name="UseCase">[1]LOV!$A$2:$A$32</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="260">
   <si>
     <t>Application_Details</t>
   </si>
@@ -775,10 +775,46 @@
     <t>QA6</t>
   </si>
   <si>
-    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
     <t>Custom</t>
+  </si>
+  <si>
+    <t>Batch1</t>
+  </si>
+  <si>
+    <t>MSISDN--97430181001||New_PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Batch2</t>
+  </si>
+  <si>
+    <t>MSISDN--97430166364||Order_Reason--Leaving Country Forever||</t>
+  </si>
+  <si>
+    <t>Batch3</t>
+  </si>
+  <si>
+    <t>MSISDN--97470912970||Order_Reason--Leaving Country Forever||</t>
+  </si>
+  <si>
+    <t>Batch4</t>
+  </si>
+  <si>
+    <t>MSISDN--97430166359||Order_Reason--Leaving Country Forever||</t>
+  </si>
+  <si>
+    <t>Batch5</t>
+  </si>
+  <si>
+    <t>MSISDN--97430535541||Order_Reason--Leaving Country Forever||</t>
+  </si>
+  <si>
+    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>SAYEDAHMED</t>
+  </si>
+  <si>
+    <t>Aisha***10</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1494,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1507,7 +1543,13 @@
         <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>257</v>
+      </c>
+      <c r="E2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" t="s">
+        <v>259</v>
       </c>
       <c r="G2" t="s">
         <v>118</v>
@@ -1534,10 +1576,9 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1570,11 +1611,121 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>2</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
     <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1593,8 +1744,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E395"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="B398" sqref="B398"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="L173" sqref="L173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7144,7 +7295,7 @@
         <v>1</v>
       </c>
       <c r="B393" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C393" s="20" t="s">
         <v>12</v>
@@ -7161,16 +7312,16 @@
         <v>2</v>
       </c>
       <c r="B394" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C394" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D394" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E394" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -7178,7 +7329,7 @@
         <v>3</v>
       </c>
       <c r="B395" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C395" s="20" t="s">
         <v>25</v>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -781,40 +781,40 @@
     <t>Batch1</t>
   </si>
   <si>
-    <t>MSISDN--97430181001||New_PlanName--Prepaid Red Promotion||</t>
+    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>SAYEDAHMED</t>
+  </si>
+  <si>
+    <t>Aisha***10</t>
+  </si>
+  <si>
+    <t>MSISDN--97470286741||Order_Reason--Leaving Country Forever||</t>
+  </si>
+  <si>
+    <t>MSISDN--97474485323||Order_Reason--Leaving Country Forever||</t>
+  </si>
+  <si>
+    <t>MSISDN--97474782967||Order_Reason--Leaving Country Forever||</t>
+  </si>
+  <si>
+    <t>MSISDN--97474783036||Order_Reason--Leaving Country Forever||</t>
+  </si>
+  <si>
+    <t>MSISDN--97474782980||Order_Reason--Leaving Country Forever||</t>
   </si>
   <si>
     <t>Batch2</t>
   </si>
   <si>
-    <t>MSISDN--97430166364||Order_Reason--Leaving Country Forever||</t>
-  </si>
-  <si>
     <t>Batch3</t>
   </si>
   <si>
-    <t>MSISDN--97470912970||Order_Reason--Leaving Country Forever||</t>
-  </si>
-  <si>
     <t>Batch4</t>
   </si>
   <si>
-    <t>MSISDN--97430166359||Order_Reason--Leaving Country Forever||</t>
-  </si>
-  <si>
     <t>Batch5</t>
-  </si>
-  <si>
-    <t>MSISDN--97430535541||Order_Reason--Leaving Country Forever||</t>
-  </si>
-  <si>
-    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>SAYEDAHMED</t>
-  </si>
-  <si>
-    <t>Aisha***10</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1494,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1543,13 +1543,13 @@
         <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
         <v>118</v>
@@ -1576,9 +1576,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1616,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>247</v>
@@ -1625,24 +1626,24 @@
         <v>104</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>105</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>104</v>
@@ -1654,18 +1655,18 @@
         <v>115</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>104</v>
@@ -1677,18 +1678,18 @@
         <v>115</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>104</v>
@@ -1705,13 +1706,13 @@
     </row>
     <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>104</v>
@@ -1723,7 +1724,7 @@
         <v>115</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1744,7 +1745,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="L173" sqref="L173"/>
     </sheetView>
   </sheetViews>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AhmedS32\Desktop\WorkspaceVF\VFQA-Parallel\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Work_Giri\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="252">
   <si>
     <t>Application_Details</t>
   </si>
@@ -772,9 +772,6 @@
     <t>Olympus</t>
   </si>
   <si>
-    <t>QA6</t>
-  </si>
-  <si>
     <t>Custom</t>
   </si>
   <si>
@@ -784,37 +781,16 @@
     <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
   <si>
+    <t>MSISDN--12121212||PlanName--Postpaid Go Business 65 Plan Promotion||PlanBundle--Go Business 65::15% Discount||</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
     <t>SAYEDAHMED</t>
   </si>
   <si>
     <t>Aisha***10</t>
-  </si>
-  <si>
-    <t>MSISDN--97470286741||Order_Reason--Leaving Country Forever||</t>
-  </si>
-  <si>
-    <t>MSISDN--97474485323||Order_Reason--Leaving Country Forever||</t>
-  </si>
-  <si>
-    <t>MSISDN--97474782967||Order_Reason--Leaving Country Forever||</t>
-  </si>
-  <si>
-    <t>MSISDN--97474783036||Order_Reason--Leaving Country Forever||</t>
-  </si>
-  <si>
-    <t>MSISDN--97474782980||Order_Reason--Leaving Country Forever||</t>
-  </si>
-  <si>
-    <t>Batch2</t>
-  </si>
-  <si>
-    <t>Batch3</t>
-  </si>
-  <si>
-    <t>Batch4</t>
-  </si>
-  <si>
-    <t>Batch5</t>
   </si>
 </sst>
 </file>
@@ -1540,16 +1516,16 @@
         <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
         <v>118</v>
@@ -1576,10 +1552,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="110.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1617,116 +1593,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
-        <v>1</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>1</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7296,7 +7184,7 @@
         <v>1</v>
       </c>
       <c r="B393" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C393" s="20" t="s">
         <v>12</v>
@@ -7313,16 +7201,16 @@
         <v>2</v>
       </c>
       <c r="B394" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C394" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D394" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E394" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -7330,7 +7218,7 @@
         <v>3</v>
       </c>
       <c r="B395" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C395" s="20" t="s">
         <v>25</v>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Work_Giri\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LakhaniB2\Desktop\Imp Docs\Bulk\VFQA-Parallel\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="354">
   <si>
     <t>Application_Details</t>
   </si>
@@ -778,19 +778,325 @@
     <t>Batch1</t>
   </si>
   <si>
-    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>MSISDN--12121212||PlanName--Postpaid Go Business 65 Plan Promotion||PlanBundle--Go Business 65::15% Discount||</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
-    <t>SAYEDAHMED</t>
-  </si>
-  <si>
-    <t>Aisha***10</t>
+    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe</t>
+  </si>
+  <si>
+    <t>brijeshlakhani</t>
+  </si>
+  <si>
+    <t>bateel@2022</t>
+  </si>
+  <si>
+    <t>Batch2</t>
+  </si>
+  <si>
+    <t>Batch3</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452416||SIM--8942702111238819552||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452440||SIM--8942702111238819578||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452464||SIM--8942702111238819586||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452469||SIM--8942702111238819594||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452507||SIM--8942702111238819602||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452515||SIM--8942702111238819610||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452541||SIM--8942702111238819628||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452549||SIM--8942702111238819636||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452587||SIM--8942702111238819644||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452594||SIM--8942702111238819651||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452603||SIM--8942702111238819669||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452606||SIM--8942702111238819677||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452692||SIM--8942702111238819685||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452699||SIM--8942702111238819693||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452706||SIM--8942702111238819701||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452834||SIM--8942702111238819719||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452847||SIM--8942702111238819727||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452854||SIM--8942702111238819735||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452857||SIM--8942702111238819743||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452862||SIM--8942702111238819750||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452868||SIM--8942702111238819768||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452885||SIM--8942702111238819776||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452916||SIM--8942702111238819784||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452945||SIM--8942702111238819792||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452949||SIM--8942702111238819800||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452964||SIM--8942702111238819818||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430452982||SIM--8942702111238819826||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453018||SIM--8942702111238819834||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453021||SIM--8942702111238819842||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453022||SIM--8942702111238819859||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453079||SIM--8942702111238819867||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453155||SIM--8942702111238819875||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453209||SIM--8942702111238819883||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453239||SIM--8942702111238819891||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453245||SIM--8942702111238819909||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453248||SIM--8942702111238819917||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453250||SIM--8942702111238819925||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453254||SIM--8942702111238819933||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453256||SIM--8942702111238819941||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453257||SIM--8942702111238819958||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453258||SIM--8942702111238819966||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453263||SIM--8942702111238819974||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453268||SIM--8942702111238819982||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453269||SIM--8942702111238819990||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453281||SIM--8942702111238820006||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453379||SIM--8942702111238820014||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453382||SIM--8942702111238820022||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453528||SIM--8942702111238820030||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453663||SIM--8942702111238820048||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453674||SIM--8942702111238820055||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453675||SIM--8942702111238820063||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453696||SIM--8942702111238820071||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453707||SIM--8942702111238820089||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453708||SIM--8942702111238820097||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453710||SIM--8942702111238820105||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453711||SIM--8942702111238820113||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453720||SIM--8942702111238820121||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453722||SIM--8942702111238820139||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453740||SIM--8942702111238820147||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453741||SIM--8942702111238820154||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453803||SIM--8942702111238820162||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453805||SIM--8942702111238820170||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453829||SIM--8942702111238820188||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453831||SIM--8942702111238820196||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453835||SIM--8942702111238820204||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453840||SIM--8942702111238820212||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453842||SIM--8942702111238820220||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453844||SIM--8942702111238820238||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453848||SIM--8942702111238820246||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453856||SIM--8942702111238820253||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453874||SIM--8942702111238820261||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453875||SIM--8942702111238820279||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453876||SIM--8942702111238820287||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453881||SIM--8942702111238820295||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453885||SIM--8942702111238820303||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453892||SIM--8942702111238820311||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453902||SIM--8942702111238820329||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453906||SIM--8942702111238820337||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453916||SIM--8942702111238820345||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453928||SIM--8942702111238820352||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453930||SIM--8942702111238820360||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430453931||SIM--8942702111238820378||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454018||SIM--8942702111238820386||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454080||SIM--8942702111238820394||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454102||SIM--8942702111238820402||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454143||SIM--8942702111238820410||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454145||SIM--8942702111238820428||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454158||SIM--8942702111238820436||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454163||SIM--8942702111238820444||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454185||SIM--8942702111238820451||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454214||SIM--8942702111238820469||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454215||SIM--8942702111238820477||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454231||SIM--8942702111238820485||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454243||SIM--8942702111238820493||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454274||SIM--8942702111238820501||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454279||SIM--8942702111238820519||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454289||SIM--8942702111238820527||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454295||SIM--8942702111238820535||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Account_No--76029073601||MSISDN--97430454352||SIM--8942702111238820543||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>Existing</t>
+  </si>
+  <si>
+    <t>AccountNo--76029073601||MSISDN--97430452418||SIM--8942702111238819560||PlanName--Prepaid Red Promotion||</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1785,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1516,16 +1822,16 @@
         <v>244</v>
       </c>
       <c r="C2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" t="s">
         <v>249</v>
       </c>
-      <c r="D2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>250</v>
-      </c>
-      <c r="F2" t="s">
-        <v>251</v>
       </c>
       <c r="G2" t="s">
         <v>118</v>
@@ -1540,7 +1846,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H2" sqref="A2:H10"/>
@@ -1552,10 +1858,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="110.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="109.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1593,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>246</v>
@@ -1602,26 +1908,2292 @@
         <v>104</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>252</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>251</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>246</v>
+      </c>
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" t="s">
+        <v>111</v>
+      </c>
+      <c r="H50" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" t="s">
+        <v>251</v>
+      </c>
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H52" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" t="s">
+        <v>111</v>
+      </c>
+      <c r="H53" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" t="s">
+        <v>251</v>
+      </c>
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" t="s">
+        <v>111</v>
+      </c>
+      <c r="H54" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" t="s">
+        <v>111</v>
+      </c>
+      <c r="H55" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" t="s">
+        <v>111</v>
+      </c>
+      <c r="H56" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" t="s">
+        <v>251</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" t="s">
+        <v>252</v>
+      </c>
+      <c r="D58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58" t="s">
+        <v>111</v>
+      </c>
+      <c r="H58" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" t="s">
+        <v>111</v>
+      </c>
+      <c r="H59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" t="s">
+        <v>251</v>
+      </c>
+      <c r="D60" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" t="s">
+        <v>111</v>
+      </c>
+      <c r="H60" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" t="s">
+        <v>111</v>
+      </c>
+      <c r="H61" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" t="s">
+        <v>111</v>
+      </c>
+      <c r="H62" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" t="s">
+        <v>111</v>
+      </c>
+      <c r="H63" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" t="s">
+        <v>111</v>
+      </c>
+      <c r="H64" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" t="s">
+        <v>130</v>
+      </c>
+      <c r="F65" t="s">
+        <v>111</v>
+      </c>
+      <c r="H65" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
+        <v>111</v>
+      </c>
+      <c r="H66" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" t="s">
+        <v>252</v>
+      </c>
+      <c r="D67" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
+        <v>111</v>
+      </c>
+      <c r="H67" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
+        <v>111</v>
+      </c>
+      <c r="H68" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" t="s">
+        <v>251</v>
+      </c>
+      <c r="D69" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
+        <v>111</v>
+      </c>
+      <c r="H69" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
+        <v>111</v>
+      </c>
+      <c r="H70" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" t="s">
+        <v>111</v>
+      </c>
+      <c r="H71" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" t="s">
+        <v>251</v>
+      </c>
+      <c r="D72" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" t="s">
+        <v>130</v>
+      </c>
+      <c r="F72" t="s">
+        <v>111</v>
+      </c>
+      <c r="H72" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" t="s">
+        <v>130</v>
+      </c>
+      <c r="F73" t="s">
+        <v>111</v>
+      </c>
+      <c r="H73" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" t="s">
+        <v>111</v>
+      </c>
+      <c r="H74" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" t="s">
+        <v>251</v>
+      </c>
+      <c r="D75" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" t="s">
+        <v>130</v>
+      </c>
+      <c r="F75" t="s">
+        <v>111</v>
+      </c>
+      <c r="H75" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" t="s">
+        <v>130</v>
+      </c>
+      <c r="F76" t="s">
+        <v>111</v>
+      </c>
+      <c r="H76" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" t="s">
+        <v>130</v>
+      </c>
+      <c r="F77" t="s">
+        <v>111</v>
+      </c>
+      <c r="H77" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s">
+        <v>251</v>
+      </c>
+      <c r="D78" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" t="s">
+        <v>130</v>
+      </c>
+      <c r="F78" t="s">
+        <v>111</v>
+      </c>
+      <c r="H78" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" t="s">
+        <v>130</v>
+      </c>
+      <c r="F79" t="s">
+        <v>111</v>
+      </c>
+      <c r="H79" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" t="s">
+        <v>246</v>
+      </c>
+      <c r="D80" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" t="s">
+        <v>130</v>
+      </c>
+      <c r="F80" t="s">
+        <v>111</v>
+      </c>
+      <c r="H80" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" t="s">
+        <v>251</v>
+      </c>
+      <c r="D81" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81" t="s">
+        <v>111</v>
+      </c>
+      <c r="H81" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" t="s">
+        <v>252</v>
+      </c>
+      <c r="D82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" t="s">
+        <v>130</v>
+      </c>
+      <c r="F82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H82" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" t="s">
+        <v>130</v>
+      </c>
+      <c r="F83" t="s">
+        <v>111</v>
+      </c>
+      <c r="H83" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" t="s">
+        <v>130</v>
+      </c>
+      <c r="F84" t="s">
+        <v>111</v>
+      </c>
+      <c r="H84" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" t="s">
+        <v>252</v>
+      </c>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" t="s">
+        <v>130</v>
+      </c>
+      <c r="F85" t="s">
+        <v>111</v>
+      </c>
+      <c r="H85" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>158</v>
+      </c>
+      <c r="C86" t="s">
+        <v>246</v>
+      </c>
+      <c r="D86" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" t="s">
+        <v>130</v>
+      </c>
+      <c r="F86" t="s">
+        <v>111</v>
+      </c>
+      <c r="H86" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" t="s">
+        <v>251</v>
+      </c>
+      <c r="D87" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" t="s">
+        <v>130</v>
+      </c>
+      <c r="F87" t="s">
+        <v>111</v>
+      </c>
+      <c r="H87" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" t="s">
+        <v>252</v>
+      </c>
+      <c r="D88" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" t="s">
+        <v>130</v>
+      </c>
+      <c r="F88" t="s">
+        <v>111</v>
+      </c>
+      <c r="H88" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" t="s">
+        <v>130</v>
+      </c>
+      <c r="F89" t="s">
+        <v>111</v>
+      </c>
+      <c r="H89" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" t="s">
+        <v>251</v>
+      </c>
+      <c r="D90" t="s">
+        <v>104</v>
+      </c>
+      <c r="E90" t="s">
+        <v>130</v>
+      </c>
+      <c r="F90" t="s">
+        <v>111</v>
+      </c>
+      <c r="H90" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>158</v>
+      </c>
+      <c r="C91" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" t="s">
+        <v>111</v>
+      </c>
+      <c r="H91" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" t="s">
+        <v>104</v>
+      </c>
+      <c r="E92" t="s">
+        <v>130</v>
+      </c>
+      <c r="F92" t="s">
+        <v>111</v>
+      </c>
+      <c r="H92" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" t="s">
+        <v>251</v>
+      </c>
+      <c r="D93" t="s">
+        <v>104</v>
+      </c>
+      <c r="E93" t="s">
+        <v>130</v>
+      </c>
+      <c r="F93" t="s">
+        <v>111</v>
+      </c>
+      <c r="H93" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" t="s">
+        <v>252</v>
+      </c>
+      <c r="D94" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" t="s">
+        <v>130</v>
+      </c>
+      <c r="F94" t="s">
+        <v>111</v>
+      </c>
+      <c r="H94" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" t="s">
+        <v>104</v>
+      </c>
+      <c r="E95" t="s">
+        <v>130</v>
+      </c>
+      <c r="F95" t="s">
+        <v>111</v>
+      </c>
+      <c r="H95" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" t="s">
+        <v>251</v>
+      </c>
+      <c r="D96" t="s">
+        <v>104</v>
+      </c>
+      <c r="E96" t="s">
+        <v>130</v>
+      </c>
+      <c r="F96" t="s">
+        <v>111</v>
+      </c>
+      <c r="H96" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" t="s">
+        <v>252</v>
+      </c>
+      <c r="D97" t="s">
+        <v>104</v>
+      </c>
+      <c r="E97" t="s">
+        <v>130</v>
+      </c>
+      <c r="F97" t="s">
+        <v>111</v>
+      </c>
+      <c r="H97" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" t="s">
+        <v>104</v>
+      </c>
+      <c r="E98" t="s">
+        <v>130</v>
+      </c>
+      <c r="F98" t="s">
+        <v>111</v>
+      </c>
+      <c r="H98" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" t="s">
+        <v>251</v>
+      </c>
+      <c r="D99" t="s">
+        <v>104</v>
+      </c>
+      <c r="E99" t="s">
+        <v>130</v>
+      </c>
+      <c r="F99" t="s">
+        <v>111</v>
+      </c>
+      <c r="H99" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>158</v>
+      </c>
+      <c r="C100" t="s">
+        <v>252</v>
+      </c>
+      <c r="D100" t="s">
+        <v>104</v>
+      </c>
+      <c r="E100" t="s">
+        <v>130</v>
+      </c>
+      <c r="F100" t="s">
+        <v>111</v>
+      </c>
+      <c r="H100" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" t="s">
+        <v>246</v>
+      </c>
+      <c r="D101" t="s">
+        <v>104</v>
+      </c>
+      <c r="E101" t="s">
+        <v>130</v>
+      </c>
+      <c r="F101" t="s">
+        <v>111</v>
+      </c>
+      <c r="H101" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="248">
   <si>
     <t>Application_Details</t>
   </si>
@@ -775,22 +775,10 @@
     <t>Custom</t>
   </si>
   <si>
-    <t>Batch1</t>
-  </si>
-  <si>
-    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>MSISDN--12121212||PlanName--Postpaid Go Business 65 Plan Promotion||PlanBundle--Go Business 65::15% Discount||</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>SAYEDAHMED</t>
-  </si>
-  <si>
-    <t>Aisha***10</t>
+    <t>QA6</t>
+  </si>
+  <si>
+    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
 </sst>
 </file>
@@ -1471,7 +1459,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,16 +1504,10 @@
         <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
         <v>247</v>
-      </c>
-      <c r="E2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F2" t="s">
-        <v>251</v>
       </c>
       <c r="G2" t="s">
         <v>118</v>
@@ -1543,7 +1525,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="A2:H10"/>
+      <selection activeCell="F2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,10 +1534,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="110.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1588,29 +1570,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImranH2\Desktop\Work_busi\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\OneDrive - Maveric Systems Limited\Desktop\Imran\Work_Giri\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="371">
   <si>
     <t>Application_Details</t>
   </si>
@@ -1123,10 +1123,31 @@
     <t>Mcare_Pre_FlexVerify</t>
   </si>
   <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>https://10.160.222.20:4443/ecommunications_oui_enu/start.swe?</t>
+    <t>QA12</t>
+  </si>
+  <si>
+    <t>https://10.162.54.242:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>JENKINS_REGRESSION</t>
+  </si>
+  <si>
+    <t>JENKINS_REGRESSION1</t>
+  </si>
+  <si>
+    <t>http://10.162.53.91:8001/soa-infra/services/vfqamrgdomain/QueryRealTimeBalanceSiebelReqABCSImpl/queryrealtimebalancesiebelreqabcsimpl_client_ep?WSDL</t>
+  </si>
+  <si>
+    <t>http://10.162.54.244:7001/OrderManagement/Login.jsp</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>testing123</t>
+  </si>
+  <si>
+    <t>IE</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1834,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -1824,9 +1845,9 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="149.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1866,8 +1887,51 @@
       <c r="D2" t="s">
         <v>363</v>
       </c>
+      <c r="E2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" t="s">
+        <v>365</v>
+      </c>
       <c r="G2" t="s">
         <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -1938,8 +2002,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E650"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A365" workbookViewId="0">
+      <selection activeCell="B613" sqref="B613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,9 +2156,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>130</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>70</v>
       </c>
@@ -2109,9 +2171,7 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>130</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
@@ -2126,9 +2186,7 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>130</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
@@ -2143,9 +2201,7 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>130</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2279,7 +2335,9 @@
       <c r="A21" s="3">
         <v>7</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="C21" s="5" t="s">
         <v>126</v>
       </c>
@@ -2507,9 +2565,7 @@
       <c r="A36" s="3">
         <v>9</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
         <v>70</v>
       </c>
@@ -2524,9 +2580,7 @@
       <c r="A37" s="3">
         <v>10</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="B37" s="4"/>
       <c r="C37" s="6" t="s">
         <v>27</v>
       </c>
@@ -2541,9 +2595,7 @@
       <c r="A38" s="3">
         <v>11</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="6" t="s">
         <v>29</v>
       </c>
@@ -2558,9 +2610,7 @@
       <c r="A39" s="3">
         <v>12</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="6" t="s">
         <v>31</v>
       </c>
@@ -2711,9 +2761,7 @@
       <c r="A49" s="3">
         <v>8</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
         <v>70</v>
       </c>
@@ -2728,9 +2776,7 @@
       <c r="A50" s="3">
         <v>9</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="B50" s="4"/>
       <c r="C50" s="6" t="s">
         <v>27</v>
       </c>
@@ -2745,9 +2791,7 @@
       <c r="A51" s="3">
         <v>10</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="B51" s="4"/>
       <c r="C51" s="6" t="s">
         <v>29</v>
       </c>
@@ -2762,9 +2806,7 @@
       <c r="A52" s="3">
         <v>11</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="B52" s="4"/>
       <c r="C52" s="6" t="s">
         <v>31</v>
       </c>
@@ -2915,9 +2957,7 @@
       <c r="A62" s="3">
         <v>8</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="B62" s="4"/>
       <c r="C62" s="5" t="s">
         <v>70</v>
       </c>
@@ -2932,9 +2972,7 @@
       <c r="A63" s="3">
         <v>9</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="B63" s="4"/>
       <c r="C63" s="6" t="s">
         <v>27</v>
       </c>
@@ -2949,9 +2987,7 @@
       <c r="A64" s="3">
         <v>10</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="B64" s="4"/>
       <c r="C64" s="6" t="s">
         <v>29</v>
       </c>
@@ -2966,9 +3002,7 @@
       <c r="A65" s="3">
         <v>11</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="B65" s="4"/>
       <c r="C65" s="6" t="s">
         <v>31</v>
       </c>
@@ -3139,9 +3173,7 @@
       <c r="A76" s="3">
         <v>9</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>173</v>
-      </c>
+      <c r="B76" s="4"/>
       <c r="C76" s="5" t="s">
         <v>70</v>
       </c>
@@ -3156,9 +3188,7 @@
       <c r="A77" s="3">
         <v>10</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>173</v>
-      </c>
+      <c r="B77" s="4"/>
       <c r="C77" s="6" t="s">
         <v>27</v>
       </c>
@@ -3173,9 +3203,7 @@
       <c r="A78" s="3">
         <v>11</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>173</v>
-      </c>
+      <c r="B78" s="4"/>
       <c r="C78" s="6" t="s">
         <v>29</v>
       </c>
@@ -3190,9 +3218,7 @@
       <c r="A79" s="3">
         <v>12</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>173</v>
-      </c>
+      <c r="B79" s="4"/>
       <c r="C79" s="6" t="s">
         <v>31</v>
       </c>
@@ -3499,9 +3525,7 @@
       <c r="A101" s="3">
         <v>4</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>257</v>
-      </c>
+      <c r="B101" s="8"/>
       <c r="C101" s="5" t="s">
         <v>70</v>
       </c>
@@ -3516,9 +3540,7 @@
       <c r="A102" s="3">
         <v>5</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>257</v>
-      </c>
+      <c r="B102" s="8"/>
       <c r="C102" s="6" t="s">
         <v>27</v>
       </c>
@@ -3533,9 +3555,7 @@
       <c r="A103" s="3">
         <v>6</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>257</v>
-      </c>
+      <c r="B103" s="8"/>
       <c r="C103" s="6" t="s">
         <v>29</v>
       </c>
@@ -3550,9 +3570,7 @@
       <c r="A104" s="3">
         <v>7</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>257</v>
-      </c>
+      <c r="B104" s="8"/>
       <c r="C104" s="6" t="s">
         <v>31</v>
       </c>
@@ -3601,9 +3619,7 @@
       <c r="A108" s="3">
         <v>2</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B108" s="4"/>
       <c r="C108" s="5" t="s">
         <v>27</v>
       </c>
@@ -3618,9 +3634,7 @@
       <c r="A109" s="3">
         <v>3</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B109" s="4"/>
       <c r="C109" s="6" t="s">
         <v>29</v>
       </c>
@@ -3635,9 +3649,7 @@
       <c r="A110" s="3">
         <v>4</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B110" s="4"/>
       <c r="C110" s="5" t="s">
         <v>70</v>
       </c>
@@ -3669,9 +3681,7 @@
       <c r="A112" s="3">
         <v>6</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B112" s="4"/>
       <c r="C112" s="5" t="s">
         <v>70</v>
       </c>
@@ -3686,9 +3696,7 @@
       <c r="A113" s="3">
         <v>7</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B113" s="4"/>
       <c r="C113" s="6" t="s">
         <v>27</v>
       </c>
@@ -3703,9 +3711,7 @@
       <c r="A114" s="3">
         <v>8</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B114" s="4"/>
       <c r="C114" s="6" t="s">
         <v>72</v>
       </c>
@@ -3720,9 +3726,7 @@
       <c r="A115" s="3">
         <v>9</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B115" s="4"/>
       <c r="C115" s="6" t="s">
         <v>31</v>
       </c>
@@ -3771,9 +3775,7 @@
       <c r="A119" s="3">
         <v>2</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B119" s="4"/>
       <c r="C119" s="5" t="s">
         <v>27</v>
       </c>
@@ -3788,9 +3790,7 @@
       <c r="A120" s="3">
         <v>3</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B120" s="4"/>
       <c r="C120" s="6" t="s">
         <v>29</v>
       </c>
@@ -3805,9 +3805,7 @@
       <c r="A121" s="3">
         <v>4</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B121" s="4"/>
       <c r="C121" s="5" t="s">
         <v>70</v>
       </c>
@@ -3839,9 +3837,7 @@
       <c r="A123" s="3">
         <v>6</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B123" s="4"/>
       <c r="C123" s="5" t="s">
         <v>70</v>
       </c>
@@ -3856,9 +3852,7 @@
       <c r="A124" s="3">
         <v>7</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B124" s="4"/>
       <c r="C124" s="5" t="s">
         <v>27</v>
       </c>
@@ -3873,9 +3867,7 @@
       <c r="A125" s="3">
         <v>8</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B125" s="4"/>
       <c r="C125" s="6" t="s">
         <v>72</v>
       </c>
@@ -3890,9 +3882,7 @@
       <c r="A126" s="3">
         <v>9</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B126" s="4"/>
       <c r="C126" s="6" t="s">
         <v>31</v>
       </c>
@@ -3941,9 +3931,7 @@
       <c r="A130" s="3">
         <v>2</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B130" s="8"/>
       <c r="C130" s="5" t="s">
         <v>27</v>
       </c>
@@ -3958,9 +3946,7 @@
       <c r="A131" s="3">
         <v>3</v>
       </c>
-      <c r="B131" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B131" s="8"/>
       <c r="C131" s="6" t="s">
         <v>29</v>
       </c>
@@ -3992,9 +3978,7 @@
       <c r="A133" s="3">
         <v>5</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B133" s="8"/>
       <c r="C133" s="6" t="s">
         <v>27</v>
       </c>
@@ -4009,9 +3993,7 @@
       <c r="A134" s="3">
         <v>6</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B134" s="8"/>
       <c r="C134" s="6" t="s">
         <v>76</v>
       </c>
@@ -4111,9 +4093,7 @@
       <c r="A142" s="3">
         <v>2</v>
       </c>
-      <c r="B142" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B142" s="8"/>
       <c r="C142" s="5" t="s">
         <v>27</v>
       </c>
@@ -4128,9 +4108,7 @@
       <c r="A143" s="3">
         <v>3</v>
       </c>
-      <c r="B143" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B143" s="8"/>
       <c r="C143" s="6" t="s">
         <v>29</v>
       </c>
@@ -4162,9 +4140,7 @@
       <c r="A145" s="3">
         <v>5</v>
       </c>
-      <c r="B145" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B145" s="8"/>
       <c r="C145" s="6" t="s">
         <v>27</v>
       </c>
@@ -4179,9 +4155,7 @@
       <c r="A146" s="3">
         <v>6</v>
       </c>
-      <c r="B146" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B146" s="8"/>
       <c r="C146" s="6" t="s">
         <v>76</v>
       </c>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\OneDrive - Maveric Systems Limited\Desktop\Imran\Work_Giri\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\OneDrive - Maveric Systems Limited\Desktop\Imran\Workspace_Business\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="365">
   <si>
     <t>Application_Details</t>
   </si>
@@ -1123,31 +1123,13 @@
     <t>Mcare_Pre_FlexVerify</t>
   </si>
   <si>
-    <t>QA12</t>
-  </si>
-  <si>
-    <t>https://10.162.54.242:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>JENKINS_REGRESSION</t>
-  </si>
-  <si>
-    <t>JENKINS_REGRESSION1</t>
-  </si>
-  <si>
-    <t>http://10.162.53.91:8001/soa-infra/services/vfqamrgdomain/QueryRealTimeBalanceSiebelReqABCSImpl/queryrealtimebalancesiebelreqabcsimpl_client_ep?WSDL</t>
-  </si>
-  <si>
-    <t>http://10.162.54.244:7001/OrderManagement/Login.jsp</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>testing123</t>
-  </si>
-  <si>
-    <t>IE</t>
+    <t>Batch1</t>
+  </si>
+  <si>
+    <t>Existing</t>
+  </si>
+  <si>
+    <t>AccountNo--16676647104||MSISDN--97478152387||SIM--8962702800901163387||Service_Type--Mobile||OrderNo--1-16677499521||Opportunity_ID--test_1212||</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1816,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -1845,9 +1827,9 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1881,57 +1863,8 @@
       <c r="B2" t="s">
         <v>301</v>
       </c>
-      <c r="C2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F2" t="s">
-        <v>365</v>
-      </c>
       <c r="G2" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E4" t="s">
-        <v>368</v>
-      </c>
-      <c r="F4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G4" t="s">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +1876,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
@@ -1955,10 +1888,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="147.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1989,6 +1922,29 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H2" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
